--- a/Predictive scenarios 2021.xlsx
+++ b/Predictive scenarios 2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA488F2-8511-43D4-B2E2-B088628B7CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EDC88-4F46-4583-BE11-B1DE3DD37E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22305" yWindow="915" windowWidth="20490" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.000_);_([$€-2]\ * \(#,##0.000\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +343,17 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +390,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -397,28 +412,6 @@
       <right/>
       <top style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -451,15 +444,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,123 +602,510 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -743,29 +1114,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -780,14 +1151,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6360,7 +6849,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3900C907-7DDE-4BCF-A401-F6594D1F628F}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3900C907-7DDE-4BCF-A401-F6594D1F628F}" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6780,8 +7269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6801,93 +7290,93 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="61">
         <v>8</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="61">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="61">
         <v>8</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="70">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="74">
         <f>SUM(C4:F4)</f>
         <v>32</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="62">
         <v>59</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="M4" s="77" t="s">
+      <c r="K4" s="49"/>
+      <c r="M4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="77"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="54">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="54">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="54">
         <v>4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="71">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="75">
         <f t="shared" ref="G5:G13" si="0">SUM(C5:F5)</f>
         <v>16</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="57">
         <v>2</v>
       </c>
       <c r="J5" t="s">
@@ -6904,30 +7393,30 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="55">
         <f>SUM(C4:C5)</f>
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="55">
         <f t="shared" ref="D6:F6" si="1">SUM(D4:D5)</f>
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="55">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="72">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="75">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="58">
         <f>SUM(H4:H5)</f>
         <v>61</v>
       </c>
@@ -6945,90 +7434,95 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="7"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="56">
         <v>100</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="56">
         <v>100</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="56">
         <v>100</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="73">
         <v>100</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="76">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="59">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="79">
         <v>10</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="79">
         <v>10</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="79">
         <v>10</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="80">
         <v>10</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="81">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="82">
         <v>13.4</v>
       </c>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="M9" s="77" t="s">
+      <c r="K9" s="49"/>
+      <c r="M9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="77"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="105">
         <f>C8+(C9*C5)</f>
         <v>140</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="105">
         <f t="shared" ref="D10:F10" si="2">D8+(D9*D5)</f>
         <v>140</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="105">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="106">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="85">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="86">
         <f>SUM(H8:H9)</f>
         <v>513.4</v>
       </c>
@@ -7046,8 +7540,13 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="7"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="4"/>
       <c r="J11" t="s">
         <v>20</v>
       </c>
@@ -7062,603 +7561,623 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="89">
         <f>($K$5+$K$6*C4)+($K$10+$K$11*C5)*C9/10</f>
         <v>6684.49</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="89">
         <f>($K$5+$K$6*D4)+($K$10+$K$11*D5)*D9/10</f>
         <v>6684.49</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="89">
         <f>($K$5+$K$6*E4)+($K$10+$K$11*E5)*E9/10</f>
         <v>6684.49</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="90">
         <f>($K$5+$K$6*F4)+($K$10+$K$11*F5)*F9/10</f>
         <v>6684.49</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="101">
         <f t="shared" si="0"/>
         <v>26737.96</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="95">
         <f>'[1]Posts 2020'!AF3</f>
         <v>13354</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="89">
         <f>($N$5+$N$6*C4)+($N$10+$N$11*C5)*C9/10</f>
         <v>340.69990000000007</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="89">
         <f>($N$5+$N$6*D4)+($N$10+$N$11*D5)*D9/10</f>
         <v>340.69990000000007</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="89">
         <f>($N$5+$N$6*E4)+($N$10+$N$11*E5)*E9/10</f>
         <v>340.69990000000007</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="90">
         <f>($N$5+$N$6*F4)+($N$10+$N$11*F5)*F9/10</f>
         <v>340.69990000000007</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="100">
         <f t="shared" si="0"/>
         <v>1362.7996000000003</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="5">
         <f>'[1]Posts 2020'!AF4</f>
         <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="32">
         <f>G10/G12</f>
         <v>2.0944006199425835E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="56" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="32">
         <f>G10/G13</f>
         <v>0.410918817410865</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="61">
         <v>10</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="61">
         <v>10</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="61">
         <v>10</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="70">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="77">
         <f>SUM(C18:F18)</f>
         <v>40</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="62">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="54">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="54">
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="54">
         <v>2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="71">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="75">
         <f t="shared" ref="G19:G20" si="3">SUM(C19:F19)</f>
         <v>8</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="57">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="55">
         <f>SUM(C18:C19)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="55">
         <f t="shared" ref="D20:F20" si="4">SUM(D18:D19)</f>
         <v>12</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="55">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="72">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="75">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="58">
         <f>SUM(H18:H19)</f>
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="7"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="56">
         <v>100</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="56">
         <v>100</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="56">
         <v>100</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="73">
         <v>100</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="76">
         <f t="shared" ref="G22:G24" si="5">SUM(C22:F22)</f>
         <v>400</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="59">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="79">
         <v>10</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="79">
         <v>10</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="79">
         <v>10</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="80">
         <v>10</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="81">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="82">
         <v>13.4</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="83">
         <f>C22+(C23*C19)</f>
         <v>120</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="83">
         <f t="shared" ref="D24:F24" si="6">D22+(D23*D19)</f>
         <v>120</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="83">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="84">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="87">
         <f t="shared" si="5"/>
         <v>480</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="88">
         <f>SUM(H22:H23)</f>
         <v>513.4</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="7"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="92">
         <f>($K$5+$K$6*C18)+($K$10+$K$11*C19)*C23/10</f>
         <v>4804.83</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="92">
         <f>($K$5+$K$6*D18)+($K$10+$K$11*D19)*D23/10</f>
         <v>4804.83</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="92">
         <f>($K$5+$K$6*E18)+($K$10+$K$11*E19)*E23/10</f>
         <v>4804.83</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="93">
         <f>($K$5+$K$6*F18)+($K$10+$K$11*F19)*F23/10</f>
         <v>4804.83</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="99">
         <f t="shared" ref="G26:G27" si="7">SUM(C26:F26)</f>
         <v>19219.32</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="95">
         <v>13354</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="89">
         <f>($N$5+$N$6*C18)+($N$10+$N$11*C19)*C23/10</f>
         <v>249.25390000000004</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="89">
         <f>($N$5+$N$6*D18)+($N$10+$N$11*D19)*D23/10</f>
         <v>249.25390000000004</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="89">
         <f>($N$5+$N$6*E18)+($N$10+$N$11*E19)*E23/10</f>
         <v>249.25390000000004</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="90">
         <f>($N$5+$N$6*F18)+($N$10+$N$11*F19)*F23/10</f>
         <v>249.25390000000004</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="98">
         <f t="shared" si="7"/>
         <v>997.01560000000018</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="5">
         <v>817</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="56" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="32">
         <f>G24/G26</f>
         <v>2.4974869038030482E-2</v>
       </c>
-      <c r="H28" s="59"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="32">
         <f>G24/G27</f>
         <v>0.48143679998587779</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="30">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="61">
         <v>11</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="61">
         <v>11</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="61">
         <v>11</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="70">
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="77">
         <f>SUM(C32:F32)</f>
         <v>44</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="62">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="54">
         <v>1</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="54">
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="54">
         <v>1</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="71">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="75">
         <f t="shared" ref="G33:G34" si="8">SUM(C33:F33)</f>
         <v>4</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="57">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="55">
         <f>SUM(C32:C33)</f>
         <v>12</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="55">
         <f t="shared" ref="D34:F34" si="9">SUM(D32:D33)</f>
         <v>12</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="55">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="72">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="75">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="58">
         <f>SUM(H32:H33)</f>
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="7"/>
-      <c r="H35" s="11"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="58"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="56">
         <v>100</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="56">
         <v>100</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="56">
         <v>100</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="73">
         <v>100</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="76">
         <f t="shared" ref="G36:G38" si="10">SUM(C36:F36)</f>
         <v>400</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="59">
         <v>500</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="79">
         <v>10</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="79">
         <v>10</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="79">
         <v>10</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="80">
         <v>10</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="81">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="82">
         <v>13.4</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="83">
         <f>C36+(C37*C33)</f>
         <v>110</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="83">
         <f t="shared" ref="D38:F38" si="11">D36+(D37*D33)</f>
         <v>110</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="83">
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="84">
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="97">
         <f t="shared" si="10"/>
         <v>440</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="88">
         <f>SUM(H36:H37)</f>
         <v>513.4</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="7"/>
-      <c r="H39" s="11"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="92">
         <f>($K$5+$K$6*C32)+($K$10+$K$11*C33)*C37/10</f>
         <v>3865</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="92">
         <f>($K$5+$K$6*D32)+($K$10+$K$11*D33)*D37/10</f>
         <v>3865</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="92">
         <f>($K$5+$K$6*E32)+($K$10+$K$11*E33)*E37/10</f>
         <v>3865</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="93">
         <f>($K$5+$K$6*F32)+($K$10+$K$11*F33)*F37/10</f>
         <v>3865</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="94">
         <f t="shared" ref="G40:G41" si="12">SUM(C40:F40)</f>
         <v>15460</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="95">
         <v>13354</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="89">
         <f>($N$5+$N$6*C32)+($N$10+$N$11*C33)*C37/10</f>
         <v>203.53089999999997</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="89">
         <f>($N$5+$N$6*D32)+($N$10+$N$11*D33)*D37/10</f>
         <v>203.53089999999997</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="89">
         <f>($N$5+$N$6*E32)+($N$10+$N$11*E33)*E37/10</f>
         <v>203.53089999999997</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="90">
         <f>($N$5+$N$6*F32)+($N$10+$N$11*F33)*F37/10</f>
         <v>203.53089999999997</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="91">
         <f t="shared" si="12"/>
         <v>814.1235999999999</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="5">
         <v>817</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="32">
         <f>G38/G40</f>
         <v>2.8460543337645538E-2</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="32">
         <f>G38/G41</f>
         <v>0.54045847583831264</v>
       </c>
@@ -7699,22 +8218,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" thickBot="1">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="34"/>
-      <c r="K1" s="10" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="6"/>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="O1" s="80" t="s">
+      <c r="M1" s="3"/>
+      <c r="O1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="80"/>
+      <c r="P1" s="52"/>
       <c r="Q1" s="2"/>
       <c r="Y1" t="s">
         <v>24</v>
@@ -7725,13 +8244,13 @@
       <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AE1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="AG1" t="s">
@@ -7742,360 +8261,360 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="60.75" thickBot="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="41">
+      <c r="AD2" s="13">
         <f>COUNT(B3:B61)</f>
         <v>59</v>
       </c>
-      <c r="AE2" s="41">
+      <c r="AE2" s="13">
         <f>COUNT(O3:O4)</f>
         <v>2</v>
       </c>
-      <c r="AF2" s="42">
+      <c r="AF2" s="14">
         <f>SUM(AD2:AE2)</f>
         <v>61</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="15">
         <f>AD2/AF2</f>
         <v>0.96721311475409832</v>
       </c>
-      <c r="AH2" s="43">
+      <c r="AH2" s="15">
         <f>AE2/AF2</f>
         <v>3.2786885245901641E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="64">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="16">
         <v>44010</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="17">
         <v>235</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="14">
         <v>11</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="17">
         <v>275</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="17">
         <v>100</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="17">
         <f>SUMIF($C$3:$C$61,C3,$E$3:$E$61)</f>
         <v>2353</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="17">
         <f>H3/I3</f>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="17">
         <v>1</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="17">
         <f>E3</f>
         <v>235</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="37">
         <f>F3</f>
         <v>11</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="18">
         <v>43941</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="19">
         <v>1334</v>
       </c>
       <c r="R3">
         <v>64</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="19">
         <v>1673</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48">
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20">
         <v>1</v>
       </c>
-      <c r="Z3" s="48">
+      <c r="Z3" s="20">
         <f>Q3</f>
         <v>1334</v>
       </c>
-      <c r="AA3" s="48">
+      <c r="AA3" s="20">
         <f>R3</f>
         <v>64</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD3" s="42">
+      <c r="AD3" s="14">
         <f>SUM(E3:E61)</f>
         <v>10896</v>
       </c>
-      <c r="AE3" s="42">
+      <c r="AE3" s="14">
         <f>SUM(Q3:Q4)</f>
         <v>2458</v>
       </c>
-      <c r="AF3" s="42">
+      <c r="AF3" s="14">
         <f t="shared" ref="AF3:AG9" si="0">SUM(AD3:AE3)</f>
         <v>13354</v>
       </c>
-      <c r="AG3" s="43">
+      <c r="AG3" s="15">
         <f t="shared" ref="AG3:AH5" si="1">AD3/AF3</f>
         <v>0.81593530028455896</v>
       </c>
-      <c r="AH3" s="43">
+      <c r="AH3" s="15">
         <f t="shared" ref="AH3:AI5" si="2">AE3/AF3</f>
         <v>0.18406469971544107</v>
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="64">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="21">
         <v>44009</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="22">
         <v>134</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="14">
         <v>4</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="22">
         <v>144</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="17">
         <v>100</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="17">
         <f t="shared" ref="I4:I61" si="3">SUMIF($C$3:$C$61,C4,$E$3:$E$61)</f>
         <v>2353</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="17">
         <f t="shared" ref="J4:J61" si="4">H4/I4</f>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="17">
         <v>2</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="17">
         <f>E4+L3</f>
         <v>369</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="37">
         <f>F4+M3</f>
         <v>15</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="18">
         <v>43888</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="19">
         <v>1124</v>
       </c>
       <c r="R4">
         <v>58</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="19">
         <v>1540</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="23">
         <v>10</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="20">
         <v>5</v>
       </c>
-      <c r="V4" s="51">
+      <c r="V4" s="23">
         <f>T4/Q4</f>
         <v>8.8967971530249119E-3</v>
       </c>
-      <c r="W4" s="51">
+      <c r="W4" s="23">
         <f>T4/R4</f>
         <v>0.17241379310344829</v>
       </c>
-      <c r="X4" s="51">
+      <c r="X4" s="23">
         <f>T4/S4</f>
         <v>6.4935064935064939E-3</v>
       </c>
-      <c r="Y4" s="48">
+      <c r="Y4" s="20">
         <v>2</v>
       </c>
-      <c r="Z4" s="48">
+      <c r="Z4" s="20">
         <f>Q4+Z3</f>
         <v>2458</v>
       </c>
-      <c r="AA4" s="48">
+      <c r="AA4" s="20">
         <f>R4+AA3</f>
         <v>122</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="42">
+      <c r="AD4" s="14">
         <f>SUM(F3:F61)</f>
         <v>695</v>
       </c>
-      <c r="AE4" s="42">
+      <c r="AE4" s="14">
         <f>SUM(R3:R4)</f>
         <v>122</v>
       </c>
-      <c r="AF4" s="42">
+      <c r="AF4" s="14">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="AG4" s="43">
+      <c r="AG4" s="15">
         <f t="shared" si="1"/>
         <v>0.85067319461444313</v>
       </c>
-      <c r="AH4" s="43">
+      <c r="AH4" s="15">
         <f t="shared" si="2"/>
         <v>0.14932680538555693</v>
       </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="64">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="16">
         <v>44006</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="17">
         <v>155</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="17">
         <v>166</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="17">
         <v>100</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="17">
         <v>3</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="17">
         <f t="shared" ref="L5:M20" si="5">E5+L4</f>
         <v>524</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="37">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -8111,130 +8630,130 @@
         <f>SUM(S3:S4)</f>
         <v>3213</v>
       </c>
-      <c r="AD5" s="36" t="s">
+      <c r="AD5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="42">
+      <c r="AE5" s="14">
         <f>SUM(G3:G61)</f>
         <v>12395</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="14">
         <f>SUM(S3:S4)</f>
         <v>3213</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="14">
         <f t="shared" si="0"/>
         <v>15608</v>
       </c>
-      <c r="AH5" s="43">
+      <c r="AH5" s="15">
         <f t="shared" si="1"/>
         <v>0.79414402870322909</v>
       </c>
-      <c r="AI5" s="43">
+      <c r="AI5" s="15">
         <f t="shared" si="2"/>
         <v>0.20585597129677088</v>
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="64">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="21">
         <v>44003</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="22">
         <v>217</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="14">
         <v>14</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="22">
         <v>273</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="17">
         <v>100</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="17">
         <v>4</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="17">
         <f t="shared" si="5"/>
         <v>741</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="37">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="W6" s="77" t="s">
+      <c r="W6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="77"/>
-      <c r="Z6" s="77" t="s">
+      <c r="X6" s="49"/>
+      <c r="Z6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" s="77"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
+      <c r="AA6" s="49"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="64">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="16">
         <v>44002</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="17">
         <v>226</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="14">
         <v>14</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="17">
         <v>268</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="17">
         <v>100</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="17">
         <v>5</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="17">
         <f t="shared" si="5"/>
         <v>967</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="37">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -8250,65 +8769,65 @@
       <c r="AA7">
         <v>5.9999999999999716</v>
       </c>
-      <c r="AC7" s="36" t="s">
+      <c r="AC7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="24">
         <f>AVERAGE(E3:E61)</f>
         <v>184.67796610169492</v>
       </c>
-      <c r="AE7" s="42">
+      <c r="AE7" s="14">
         <f>AVERAGE(Q3:Q4)</f>
         <v>1229</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="24">
         <f t="shared" si="0"/>
         <v>1413.6779661016949</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="64">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="21">
         <v>43999</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="22">
         <v>253</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="14">
         <v>13</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="22">
         <v>300</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="17">
         <v>100</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="17">
         <v>6</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="17">
         <f t="shared" si="5"/>
         <v>1220</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="37">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
@@ -8324,127 +8843,127 @@
       <c r="AA8">
         <v>58.000000000000021</v>
       </c>
-      <c r="AC8" s="36" t="s">
+      <c r="AC8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD8" s="24">
         <f>AVERAGE(F3:F61)</f>
         <v>11.779661016949152</v>
       </c>
-      <c r="AE8" s="42">
+      <c r="AE8" s="14">
         <f>AVERAGE(R3:R4)</f>
         <v>61</v>
       </c>
-      <c r="AF8" s="52">
+      <c r="AF8" s="24">
         <f t="shared" si="0"/>
         <v>72.779661016949149</v>
       </c>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="64">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="16">
         <v>43997</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="17">
         <v>222</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="14">
         <v>12</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="17">
         <v>258</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="17">
         <v>100</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="17">
         <v>7</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="17">
         <f t="shared" si="5"/>
         <v>1442</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="37">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="AC9" s="36" t="s">
+      <c r="AC9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="24">
         <f>AVERAGE(G3:G61)</f>
         <v>210.08474576271186</v>
       </c>
-      <c r="AE9" s="42">
+      <c r="AE9" s="14">
         <f>AVERAGE(S3:S4)</f>
         <v>1606.5</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="24">
         <f t="shared" si="0"/>
         <v>1816.5847457627119</v>
       </c>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
     </row>
     <row r="10" spans="1:35" ht="15.75" thickBot="1">
-      <c r="A10" s="64">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="21">
         <v>43996</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="22">
         <v>234</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="14">
         <v>16</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="22">
         <v>274</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="17">
         <v>100</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="17">
         <v>8</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="17">
         <f t="shared" si="5"/>
         <v>1676</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="37">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
@@ -8462,46 +8981,46 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="64">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="16">
         <v>43995</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="17">
         <v>310</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="14">
         <v>16</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="17">
         <v>381</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="17">
         <v>100</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="17">
         <v>9</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="17">
         <f t="shared" si="5"/>
         <v>1986</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="37">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
@@ -8519,60 +9038,60 @@
         <f>AA7+AA8*AA10</f>
         <v>122.00000000000001</v>
       </c>
-      <c r="AC11" s="53" t="s">
+      <c r="AC11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AD11" s="53" t="s">
+      <c r="AD11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AE11" s="53" t="s">
+      <c r="AE11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="53" t="s">
+      <c r="AF11" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="64">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="21">
         <v>43989</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="22">
         <v>170</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="14">
         <v>6</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="22">
         <v>188</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="17">
         <v>100</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="17">
         <v>10</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="17">
         <f t="shared" si="5"/>
         <v>2156</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="37">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
@@ -8584,46 +9103,46 @@
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="64">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="16">
         <v>43988</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="17">
         <v>197</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="14">
         <v>13</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="17">
         <v>212</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="17">
         <v>100</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="17">
         <f t="shared" si="3"/>
         <v>2353</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="17">
         <f t="shared" si="4"/>
         <v>4.2498937526561836E-2</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="17">
         <v>11</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="17">
         <f t="shared" si="5"/>
         <v>2353</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="37">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
@@ -8638,205 +9157,205 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="15.75" thickBot="1">
-      <c r="A14" s="64">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="21">
         <v>43982</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="22">
         <v>144</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="14">
         <v>3</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="22">
         <v>172</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="17">
         <v>100</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="17">
         <v>12</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="17">
         <f t="shared" si="5"/>
         <v>2497</v>
       </c>
-      <c r="M14" s="65">
+      <c r="M14" s="37">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="AC14" s="54" t="s">
+      <c r="AC14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AD14" s="54">
+      <c r="AD14" s="26">
         <v>0.98795188551406421</v>
       </c>
-      <c r="AE14" s="54">
+      <c r="AE14" s="26">
         <v>0.79991329184596704</v>
       </c>
-      <c r="AF14" s="54">
+      <c r="AF14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1">
-      <c r="A15" s="64">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="16">
         <v>43981</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="17">
         <v>283</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="14">
         <v>20</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="17">
         <v>333</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="17">
         <v>100</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="17">
         <v>13</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="17">
         <f t="shared" si="5"/>
         <v>2780</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M15" s="37">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="64">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="21">
         <v>43978</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="22">
         <v>291</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="14">
         <v>20</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="22">
         <v>363</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="17">
         <v>100</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="17">
         <v>14</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="17">
         <f t="shared" si="5"/>
         <v>3071</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="37">
         <f t="shared" si="5"/>
         <v>168</v>
       </c>
-      <c r="AC16" s="53" t="s">
+      <c r="AC16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AD16" s="53" t="s">
+      <c r="AD16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AE16" s="53" t="s">
+      <c r="AE16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="53" t="s">
+      <c r="AF16" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="64">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="16">
         <v>43975</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="17">
         <v>344</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="14">
         <v>23</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="17">
         <v>392</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="17">
         <v>100</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="17">
         <v>15</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="17">
         <f t="shared" si="5"/>
         <v>3415</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="37">
         <f t="shared" si="5"/>
         <v>191</v>
       </c>
@@ -8848,46 +9367,46 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="64">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="21">
         <v>43974</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="22">
         <v>224</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="14">
         <v>9</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="22">
         <v>253</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="17">
         <v>100</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="17">
         <v>16</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="17">
         <f t="shared" si="5"/>
         <v>3639</v>
       </c>
-      <c r="M18" s="65">
+      <c r="M18" s="37">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
@@ -8902,1997 +9421,1997 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A19" s="64">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="16">
         <v>43971</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="17">
         <v>159</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="14">
         <v>7</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="17">
         <v>176</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="17">
         <v>100</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="17">
         <v>17</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="17">
         <f t="shared" si="5"/>
         <v>3798</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="37">
         <f t="shared" si="5"/>
         <v>207</v>
       </c>
-      <c r="AC19" s="54" t="s">
+      <c r="AC19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AD19" s="54">
+      <c r="AD19" s="26">
         <v>1</v>
       </c>
-      <c r="AE19" s="54">
+      <c r="AE19" s="26">
         <v>1</v>
       </c>
-      <c r="AF19" s="54">
+      <c r="AF19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="64">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="21">
         <v>43968</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="22">
         <v>156</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="14">
         <v>7</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="22">
         <v>173</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="17">
         <v>100</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="17">
         <v>18</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="17">
         <f t="shared" si="5"/>
         <v>3954</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="37">
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="64">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="16">
         <v>43967</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="17">
         <v>353</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="14">
         <v>28</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="17">
         <v>432</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="17">
         <v>100</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="17">
         <v>19</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="17">
         <f t="shared" ref="L21:M36" si="6">E21+L20</f>
         <v>4307</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M21" s="37">
         <f t="shared" si="6"/>
         <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="64">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="21">
         <v>43964</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="22">
         <v>220</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="14">
         <v>16</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="22">
         <v>251</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="17">
         <v>100</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="17">
         <v>20</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="17">
         <f t="shared" si="6"/>
         <v>4527</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="37">
         <f t="shared" si="6"/>
         <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="64">
+      <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="16">
         <v>43961</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="17">
         <v>147</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="14">
         <v>7</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="17">
         <v>160</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="17">
         <v>100</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="17">
         <v>21</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="17">
         <f t="shared" si="6"/>
         <v>4674</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="37">
         <f t="shared" si="6"/>
         <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="64">
+      <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="21">
         <v>43960</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="22">
         <v>213</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="14">
         <v>11</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="22">
         <v>235</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="17">
         <v>100</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="17">
         <v>22</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="17">
         <f t="shared" si="6"/>
         <v>4887</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="37">
         <f t="shared" si="6"/>
         <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="64">
+      <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="16">
         <v>43959</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="17">
         <v>229</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="14">
         <v>23</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="17">
         <v>264</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="17">
         <v>100</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="17">
         <f t="shared" si="3"/>
         <v>2763</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="17">
         <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="17">
         <v>23</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="17">
         <f t="shared" si="6"/>
         <v>5116</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="37">
         <f t="shared" si="6"/>
         <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="64">
+      <c r="A26" s="36">
         <v>24</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="21">
         <v>43947</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="22">
         <v>238</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="14">
         <v>26</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="22">
         <v>268</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="17">
         <v>100</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="17">
         <v>24</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="17">
         <f t="shared" si="6"/>
         <v>5354</v>
       </c>
-      <c r="M26" s="65">
+      <c r="M26" s="37">
         <f t="shared" si="6"/>
         <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="64">
+      <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="16">
         <v>43946</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="17">
         <v>204</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="14">
         <v>10</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="17">
         <v>241</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="17">
         <v>100</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="17">
         <v>25</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="17">
         <f t="shared" si="6"/>
         <v>5558</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="37">
         <f t="shared" si="6"/>
         <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="64">
+      <c r="A28" s="36">
         <v>26</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="21">
         <v>43942</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="22">
         <v>203</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="14">
         <v>11</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="22">
         <v>239</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="17">
         <v>100</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="17">
         <v>26</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="17">
         <f t="shared" si="6"/>
         <v>5761</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="37">
         <f t="shared" si="6"/>
         <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="64">
+      <c r="A29" s="36">
         <v>27</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="21">
         <v>43939</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="22">
         <v>225</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="14">
         <v>28</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="22">
         <v>266</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="17">
         <v>100</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="17">
         <v>27</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="17">
         <f t="shared" si="6"/>
         <v>5986</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="37">
         <f t="shared" si="6"/>
         <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="64">
+      <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="16">
         <v>43935</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="17">
         <v>193</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="14">
         <v>10</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="17">
         <v>221</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="17">
         <v>100</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="17">
         <v>28</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="17">
         <f t="shared" si="6"/>
         <v>6179</v>
       </c>
-      <c r="M30" s="65">
+      <c r="M30" s="37">
         <f t="shared" si="6"/>
         <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="64">
+      <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="21">
         <v>43934</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="22">
         <v>141</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="14">
         <v>6</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31" s="22">
         <v>166</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="17">
         <v>100</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="17">
         <v>29</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="17">
         <f t="shared" si="6"/>
         <v>6320</v>
       </c>
-      <c r="M31" s="65">
+      <c r="M31" s="37">
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="64">
+      <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="16">
         <v>43933</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="17">
         <v>208</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="14">
         <v>20</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="17">
         <v>253</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="17">
         <v>100</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="17">
         <v>30</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="17">
         <f t="shared" si="6"/>
         <v>6528</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="37">
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="64">
+      <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="21">
         <v>43932</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="22">
         <v>124</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="14">
         <v>15</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33" s="22">
         <v>141</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="17">
         <v>100</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J33" s="45">
+      <c r="J33" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="17">
         <v>31</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="17">
         <f t="shared" si="6"/>
         <v>6652</v>
       </c>
-      <c r="M33" s="65">
+      <c r="M33" s="37">
         <f t="shared" si="6"/>
         <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="64">
+      <c r="A34" s="36">
         <v>32</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="16">
         <v>43932</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="17">
         <v>145</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="14">
         <v>9</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="17">
         <v>165</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="17">
         <v>100</v>
       </c>
-      <c r="I34" s="45">
+      <c r="I34" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J34" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="17">
         <v>32</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="17">
         <f t="shared" si="6"/>
         <v>6797</v>
       </c>
-      <c r="M34" s="65">
+      <c r="M34" s="37">
         <f t="shared" si="6"/>
         <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="64">
+      <c r="A35" s="36">
         <v>33</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="21">
         <v>43931</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="22">
         <v>122</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="14">
         <v>5</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35" s="22">
         <v>136</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="17">
         <v>100</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="17">
         <v>33</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="17">
         <f t="shared" si="6"/>
         <v>6919</v>
       </c>
-      <c r="M35" s="65">
+      <c r="M35" s="37">
         <f t="shared" si="6"/>
         <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="64">
+      <c r="A36" s="36">
         <v>34</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="16">
         <v>43928</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="17">
         <v>146</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="14">
         <v>7</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="17">
         <v>164</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="17">
         <v>100</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K36" s="45">
+      <c r="K36" s="17">
         <v>34</v>
       </c>
-      <c r="L36" s="45">
+      <c r="L36" s="17">
         <f t="shared" si="6"/>
         <v>7065</v>
       </c>
-      <c r="M36" s="65">
+      <c r="M36" s="37">
         <f t="shared" si="6"/>
         <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="64">
+      <c r="A37" s="36">
         <v>35</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="21">
         <v>43926</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="22">
         <v>49</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="14">
         <v>2</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37" s="22">
         <v>54</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="17">
         <v>100</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J37" s="45">
+      <c r="J37" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="17">
         <v>35</v>
       </c>
-      <c r="L37" s="45">
+      <c r="L37" s="17">
         <f t="shared" ref="L37:M52" si="7">E37+L36</f>
         <v>7114</v>
       </c>
-      <c r="M37" s="65">
+      <c r="M37" s="37">
         <f t="shared" si="7"/>
         <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="64">
+      <c r="A38" s="36">
         <v>36</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="16">
         <v>43925</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="17">
         <v>172</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="14">
         <v>10</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="17">
         <v>186</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="17">
         <v>100</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="17">
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="17">
         <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="17">
         <v>36</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="17">
         <f t="shared" si="7"/>
         <v>7286</v>
       </c>
-      <c r="M38" s="65">
+      <c r="M38" s="37">
         <f t="shared" si="7"/>
         <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="64">
+      <c r="A39" s="36">
         <v>37</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="21">
         <v>43919</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="22">
         <v>236</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="14">
         <v>16</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39" s="22">
         <v>279</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="17">
         <v>100</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="17">
         <v>37</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="17">
         <f t="shared" si="7"/>
         <v>7522</v>
       </c>
-      <c r="M39" s="65">
+      <c r="M39" s="37">
         <f t="shared" si="7"/>
         <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="64">
+      <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="16">
         <v>43918</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="17">
         <v>146</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="14">
         <v>4</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="17">
         <v>170</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="17">
         <v>100</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I40" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="17">
         <v>38</v>
       </c>
-      <c r="L40" s="45">
+      <c r="L40" s="17">
         <f t="shared" si="7"/>
         <v>7668</v>
       </c>
-      <c r="M40" s="65">
+      <c r="M40" s="37">
         <f t="shared" si="7"/>
         <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="64">
+      <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="21">
         <v>43916</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="22">
         <v>212</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="14">
         <v>13</v>
       </c>
-      <c r="G41" s="50">
+      <c r="G41" s="22">
         <v>271</v>
       </c>
-      <c r="H41" s="45">
+      <c r="H41" s="17">
         <v>100</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K41" s="45">
+      <c r="K41" s="17">
         <v>39</v>
       </c>
-      <c r="L41" s="45">
+      <c r="L41" s="17">
         <f t="shared" si="7"/>
         <v>7880</v>
       </c>
-      <c r="M41" s="65">
+      <c r="M41" s="37">
         <f t="shared" si="7"/>
         <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="64">
+      <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="16">
         <v>43912</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="17">
         <v>36</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="14">
         <v>1</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="17">
         <v>41</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="17">
         <v>100</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K42" s="17">
         <v>40</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L42" s="17">
         <f t="shared" si="7"/>
         <v>7916</v>
       </c>
-      <c r="M42" s="65">
+      <c r="M42" s="37">
         <f t="shared" si="7"/>
         <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="64">
+      <c r="A43" s="36">
         <v>41</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="21">
         <v>43911</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="22">
         <v>144</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="14">
         <v>10</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43" s="22">
         <v>182</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="17">
         <v>100</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K43" s="45">
+      <c r="K43" s="17">
         <v>41</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="17">
         <f t="shared" si="7"/>
         <v>8060</v>
       </c>
-      <c r="M43" s="65">
+      <c r="M43" s="37">
         <f t="shared" si="7"/>
         <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="64">
+      <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="16">
         <v>43909</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="17">
         <v>206</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="14">
         <v>16</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="17">
         <v>261</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="17">
         <v>100</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="17">
         <v>42</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="17">
         <f t="shared" si="7"/>
         <v>8266</v>
       </c>
-      <c r="M44" s="65">
+      <c r="M44" s="37">
         <f t="shared" si="7"/>
         <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="64">
+      <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="21">
         <v>43905</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="22">
         <v>36</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="14">
         <v>1</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45" s="22">
         <v>39</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="17">
         <v>100</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J45" s="45">
+      <c r="J45" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="17">
         <v>43</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L45" s="17">
         <f t="shared" si="7"/>
         <v>8302</v>
       </c>
-      <c r="M45" s="65">
+      <c r="M45" s="37">
         <f t="shared" si="7"/>
         <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="64">
+      <c r="A46" s="36">
         <v>44</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="16">
         <v>43904</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="17">
         <v>244</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="14">
         <v>17</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="17">
         <v>272</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="17">
         <v>100</v>
       </c>
-      <c r="I46" s="45">
+      <c r="I46" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J46" s="45">
+      <c r="J46" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K46" s="45">
+      <c r="K46" s="17">
         <v>44</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L46" s="17">
         <f t="shared" si="7"/>
         <v>8546</v>
       </c>
-      <c r="M46" s="65">
+      <c r="M46" s="37">
         <f t="shared" si="7"/>
         <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="64">
+      <c r="A47" s="36">
         <v>45</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="21">
         <v>43901</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="22">
         <v>122</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="14">
         <v>9</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47" s="22">
         <v>130</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="17">
         <v>100</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K47" s="45">
+      <c r="K47" s="17">
         <v>45</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L47" s="17">
         <f t="shared" si="7"/>
         <v>8668</v>
       </c>
-      <c r="M47" s="65">
+      <c r="M47" s="37">
         <f t="shared" si="7"/>
         <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="64">
+      <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="16">
         <v>43898</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="17">
         <v>197</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="14">
         <v>20</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="17">
         <v>203</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="17">
         <v>100</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J48" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K48" s="45">
+      <c r="K48" s="17">
         <v>46</v>
       </c>
-      <c r="L48" s="45">
+      <c r="L48" s="17">
         <f t="shared" si="7"/>
         <v>8865</v>
       </c>
-      <c r="M48" s="65">
+      <c r="M48" s="37">
         <f t="shared" si="7"/>
         <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="64">
+      <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="21">
         <v>43897</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="22">
         <v>53</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="14">
         <v>1</v>
       </c>
-      <c r="G49" s="50">
+      <c r="G49" s="22">
         <v>54</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="17">
         <v>100</v>
       </c>
-      <c r="I49" s="45">
+      <c r="I49" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J49" s="45">
+      <c r="J49" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K49" s="45">
+      <c r="K49" s="17">
         <v>47</v>
       </c>
-      <c r="L49" s="45">
+      <c r="L49" s="17">
         <f t="shared" si="7"/>
         <v>8918</v>
       </c>
-      <c r="M49" s="65">
+      <c r="M49" s="37">
         <f t="shared" si="7"/>
         <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="64">
+      <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="16">
         <v>43894</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E50" s="17">
         <v>203</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="14">
         <v>15</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="17">
         <v>206</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="17">
         <v>100</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J50" s="45">
+      <c r="J50" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K50" s="45">
+      <c r="K50" s="17">
         <v>48</v>
       </c>
-      <c r="L50" s="45">
+      <c r="L50" s="17">
         <f t="shared" si="7"/>
         <v>9121</v>
       </c>
-      <c r="M50" s="65">
+      <c r="M50" s="37">
         <f t="shared" si="7"/>
         <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="64">
+      <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="21">
         <v>43891</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="22">
         <v>223</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="14">
         <v>30</v>
       </c>
-      <c r="G51" s="50">
+      <c r="G51" s="22">
         <v>231</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="17">
         <v>100</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I51" s="17">
         <f t="shared" si="3"/>
         <v>2058</v>
       </c>
-      <c r="J51" s="45">
+      <c r="J51" s="17">
         <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
-      <c r="K51" s="45">
+      <c r="K51" s="17">
         <v>49</v>
       </c>
-      <c r="L51" s="45">
+      <c r="L51" s="17">
         <f t="shared" si="7"/>
         <v>9344</v>
       </c>
-      <c r="M51" s="65">
+      <c r="M51" s="37">
         <f t="shared" si="7"/>
         <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="64">
+      <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="16">
         <v>43890</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="17">
         <v>337</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="14">
         <v>23</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="17">
         <v>355</v>
       </c>
-      <c r="H52" s="45">
+      <c r="H52" s="17">
         <v>100</v>
       </c>
-      <c r="I52" s="45">
+      <c r="I52" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J52" s="45">
+      <c r="J52" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K52" s="45">
+      <c r="K52" s="17">
         <v>50</v>
       </c>
-      <c r="L52" s="45">
+      <c r="L52" s="17">
         <f t="shared" si="7"/>
         <v>9681</v>
       </c>
-      <c r="M52" s="65">
+      <c r="M52" s="37">
         <f t="shared" si="7"/>
         <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="64">
+      <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="21">
         <v>43889</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="22">
         <v>132</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="14">
         <v>4</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53" s="22">
         <v>141</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="17">
         <v>100</v>
       </c>
-      <c r="I53" s="45">
+      <c r="I53" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J53" s="45">
+      <c r="J53" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K53" s="45">
+      <c r="K53" s="17">
         <v>51</v>
       </c>
-      <c r="L53" s="45">
+      <c r="L53" s="17">
         <f t="shared" ref="L53:M61" si="8">E53+L52</f>
         <v>9813</v>
       </c>
-      <c r="M53" s="65">
+      <c r="M53" s="37">
         <f t="shared" si="8"/>
         <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="64">
+      <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="21">
         <v>43886</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="22">
         <v>201</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F54" s="14">
         <v>12</v>
       </c>
-      <c r="G54" s="50">
+      <c r="G54" s="22">
         <v>202</v>
       </c>
-      <c r="H54" s="45">
+      <c r="H54" s="17">
         <v>100</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J54" s="45">
+      <c r="J54" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K54" s="45">
+      <c r="K54" s="17">
         <v>52</v>
       </c>
-      <c r="L54" s="45">
+      <c r="L54" s="17">
         <f t="shared" si="8"/>
         <v>10014</v>
       </c>
-      <c r="M54" s="65">
+      <c r="M54" s="37">
         <f t="shared" si="8"/>
         <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="64">
+      <c r="A55" s="36">
         <v>53</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B55" s="16">
         <v>43884</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="17">
         <v>57</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55" s="14">
         <v>2</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="17">
         <v>57</v>
       </c>
-      <c r="H55" s="45">
+      <c r="H55" s="17">
         <v>100</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J55" s="45">
+      <c r="J55" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K55" s="45">
+      <c r="K55" s="17">
         <v>53</v>
       </c>
-      <c r="L55" s="45">
+      <c r="L55" s="17">
         <f t="shared" si="8"/>
         <v>10071</v>
       </c>
-      <c r="M55" s="65">
+      <c r="M55" s="37">
         <f t="shared" si="8"/>
         <v>652</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="64">
+      <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="21">
         <v>43881</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="22">
         <v>40</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="14">
         <v>0</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56" s="22">
         <v>42</v>
       </c>
-      <c r="H56" s="45">
+      <c r="H56" s="17">
         <v>100</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J56" s="45">
+      <c r="J56" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K56" s="45">
+      <c r="K56" s="17">
         <v>54</v>
       </c>
-      <c r="L56" s="45">
+      <c r="L56" s="17">
         <f t="shared" si="8"/>
         <v>10111</v>
       </c>
-      <c r="M56" s="65">
+      <c r="M56" s="37">
         <f t="shared" si="8"/>
         <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="64">
+      <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="16">
         <v>43877</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="17">
         <v>258</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="14">
         <v>10</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="17">
         <v>276</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H57" s="17">
         <v>100</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J57" s="45">
+      <c r="J57" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K57" s="45">
+      <c r="K57" s="17">
         <v>55</v>
       </c>
-      <c r="L57" s="45">
+      <c r="L57" s="17">
         <f t="shared" si="8"/>
         <v>10369</v>
       </c>
-      <c r="M57" s="65">
+      <c r="M57" s="37">
         <f t="shared" si="8"/>
         <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="64">
+      <c r="A58" s="36">
         <v>56</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="21">
         <v>43876</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="22">
         <v>134</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58" s="14">
         <v>2</v>
       </c>
-      <c r="G58" s="50">
+      <c r="G58" s="22">
         <v>139</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="17">
         <v>100</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J58" s="45">
+      <c r="J58" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K58" s="45">
+      <c r="K58" s="17">
         <v>56</v>
       </c>
-      <c r="L58" s="45">
+      <c r="L58" s="17">
         <f t="shared" si="8"/>
         <v>10503</v>
       </c>
-      <c r="M58" s="65">
+      <c r="M58" s="37">
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="64">
+      <c r="A59" s="36">
         <v>57</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="16">
         <v>43873</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="17">
         <v>47</v>
       </c>
-      <c r="F59" s="42">
+      <c r="F59" s="14">
         <v>1</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="17">
         <v>48</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H59" s="17">
         <v>100</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J59" s="45">
+      <c r="J59" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K59" s="45">
+      <c r="K59" s="17">
         <v>57</v>
       </c>
-      <c r="L59" s="45">
+      <c r="L59" s="17">
         <f t="shared" si="8"/>
         <v>10550</v>
       </c>
-      <c r="M59" s="65">
+      <c r="M59" s="37">
         <f t="shared" si="8"/>
         <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="64">
+      <c r="A60" s="36">
         <v>58</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="21">
         <v>43870</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="22">
         <v>292</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="14">
         <v>30</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60" s="22">
         <v>297</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="17">
         <v>100</v>
       </c>
-      <c r="I60" s="45">
+      <c r="I60" s="17">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J60" s="45">
+      <c r="J60" s="17">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K60" s="45">
+      <c r="K60" s="17">
         <v>58</v>
       </c>
-      <c r="L60" s="45">
+      <c r="L60" s="17">
         <f t="shared" si="8"/>
         <v>10842</v>
       </c>
-      <c r="M60" s="65">
+      <c r="M60" s="37">
         <f t="shared" si="8"/>
         <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="69">
+      <c r="A61" s="41">
         <v>59</v>
       </c>
-      <c r="B61" s="62">
+      <c r="B61" s="34">
         <v>43869</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="63">
+      <c r="E61" s="35">
         <v>54</v>
       </c>
-      <c r="F61" s="61">
+      <c r="F61" s="33">
         <v>0</v>
       </c>
-      <c r="G61" s="63">
+      <c r="G61" s="35">
         <v>56</v>
       </c>
-      <c r="H61" s="63">
+      <c r="H61" s="35">
         <v>100</v>
       </c>
-      <c r="I61" s="63">
+      <c r="I61" s="35">
         <f t="shared" si="3"/>
         <v>1552</v>
       </c>
-      <c r="J61" s="63">
+      <c r="J61" s="35">
         <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K61" s="63">
+      <c r="K61" s="35">
         <v>59</v>
       </c>
-      <c r="L61" s="63">
+      <c r="L61" s="35">
         <f t="shared" si="8"/>
         <v>10896</v>
       </c>
-      <c r="M61" s="70">
+      <c r="M61" s="42">
         <f t="shared" si="8"/>
         <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="63">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="35">
         <f>SUBTOTAL(109,Table3[Reach])</f>
         <v>10896</v>
       </c>
-      <c r="F62" s="63">
+      <c r="F62" s="35">
         <f>SUBTOTAL(109,Table3[Engagement])</f>
         <v>695</v>
       </c>
-      <c r="G62" s="63">
+      <c r="G62" s="35">
         <f>SUBTOTAL(109,Table3[Impressions])</f>
         <v>12395</v>
       </c>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="70">
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="42">
         <f>SUBTOTAL(109,Table3[Total Number of Engagement])</f>
         <v>21995</v>
       </c>
     </row>
     <row r="65" spans="3:23">
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="66" spans="3:23">
-      <c r="V66" s="77" t="s">
+      <c r="V66" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="W66" s="77"/>
+      <c r="W66" s="49"/>
     </row>
     <row r="67" spans="3:23">
-      <c r="L67" s="77" t="s">
+      <c r="L67" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M67" s="77"/>
+      <c r="M67" s="49"/>
       <c r="V67" t="s">
         <v>11</v>
       </c>
@@ -10986,7 +11505,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="44" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -10994,50 +11513,50 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="46">
         <v>1552</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="46">
         <v>2058</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="46">
         <v>2170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="46">
         <v>2763</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="46">
         <v>2353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="46">
         <v>10896</v>
       </c>
     </row>

--- a/Predictive scenarios 2021.xlsx
+++ b/Predictive scenarios 2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EDC88-4F46-4583-BE11-B1DE3DD37E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC48C9CE-7A95-4AA3-9E59-985782770D12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </externalReferences>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -229,9 +229,6 @@
     <t>Cost per person reached</t>
   </si>
   <si>
-    <t>Cost per peengagement</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   <si>
     <t>Bad Scenario
 (1 Ad per month)</t>
+  </si>
+  <si>
+    <t>Cost per engagement</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -919,17 +919,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="double">
@@ -1042,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1145,21 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,46 +1211,68 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1312,6 +1308,414 @@
           <color auto="1"/>
         </left>
         <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF4B4F56"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF1C1E21"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF1C1E21"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF1C1E21"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F6F7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1379,7 +1783,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1389,7 +1793,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1455,7 +1863,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1465,7 +1873,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1531,7 +1943,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1541,7 +1953,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1585,29 +2001,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1617,7 +2011,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1658,324 +2056,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF4B4F56"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF1C1E21"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2035,6 +2115,7 @@
         <name val="Inherit"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2042,7 +2123,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -2052,7 +2133,11 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2094,95 +2179,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF1C1E21"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF1C1E21"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF5F6F7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2317,44 +2313,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>People reached per post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Unpaid</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31150678040244967"/>
-          <c:y val="5.0925925925925923E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2386,17 +2344,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15792825896762902"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.80153302712160979"/>
-          <c:h val="0.70696741032370958"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2405,7 +2353,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Posts 2020'!$L$2</c:f>
+              <c:f>'Posts 2020'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2442,8 +2390,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.21965463692038495"/>
-                  <c:y val="-1.4305555555555556E-2"/>
+                  <c:x val="-0.1026408573928259"/>
+                  <c:y val="-4.1666666666666669E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2478,185 +2426,188 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Posts 2020'!$K$3:$K$61</c:f>
+              <c:f>'Posts 2020'!$K$3:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
@@ -2664,185 +2615,188 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Posts 2020'!$L$3:$L$61</c:f>
+              <c:f>'Posts 2020'!$L$3:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>235</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>369</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>524</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>741</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>967</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1220</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1442</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>1676</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2156</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2353</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2497</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2780</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3071</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>3415</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>3639</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3798</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3954</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4307</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>4527</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>4674</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>4887</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>5116</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>5354</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>5558</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>5761</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>5986</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>6179</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>6320</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>6528</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>6652</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>6797</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>6919</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>7065</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>7114</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>7286</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>7522</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>7668</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>7880</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>7916</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>8060</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>8266</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>8302</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>8546</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>8668</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>8865</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>8918</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>9121</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>9344</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>9681</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>9813</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>10014</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>10071</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>10111</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>10369</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>10503</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>10550</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>10842</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>10896</c:v>
                 </c:pt>
               </c:numCache>
@@ -2851,7 +2805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4AB8-4D0F-BA8C-5D0D8E6F3647}"/>
+              <c16:uniqueId val="{00000000-3751-4613-AFCC-A03F7EB7AF68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2864,71 +2818,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="887170320"/>
-        <c:axId val="887179888"/>
+        <c:axId val="1259085263"/>
+        <c:axId val="1259078191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="887170320"/>
+        <c:axId val="1259085263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of posts</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2966,7 +2865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887179888"/>
+        <c:crossAx val="1259078191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +2873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="887179888"/>
+        <c:axId val="1259078191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,61 +2893,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of People reached</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3080,7 +2924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887170320"/>
+        <c:crossAx val="1259085263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3144,31 +2988,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Unpaid - Engagement per post - Unpaid</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3207,6 +3026,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Posts 2020'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Number of Engagement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3235,8 +3065,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.323579615048119"/>
-                  <c:y val="-1.8935185185185208E-2"/>
+                  <c:x val="-0.25891579177602797"/>
+                  <c:y val="-4.1666666666666669E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3271,185 +3101,188 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]Posts 2020'!$K$3:$K$61</c:f>
+              <c:f>'Posts 2020'!$K$3:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
@@ -3457,185 +3290,188 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Posts 2020'!$M$3:$M$61</c:f>
+              <c:f>'Posts 2020'!$M$3:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>299</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>335</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>346</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>384</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>390</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>410</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>425</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>434</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>439</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>446</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>448</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>474</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>478</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>491</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>492</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>518</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>519</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>536</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>545</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>565</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>566</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>581</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>611</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>634</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>638</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>662</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>664</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>665</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>695</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>695</c:v>
                 </c:pt>
               </c:numCache>
@@ -3644,7 +3480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A2A-404B-BF13-E84C146A00F1}"/>
+              <c16:uniqueId val="{00000000-9957-4433-94CD-E1B7C8E7D508}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3657,71 +3493,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1679677440"/>
-        <c:axId val="1679680352"/>
+        <c:axId val="1354615439"/>
+        <c:axId val="1354610863"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1679677440"/>
+        <c:axId val="1354615439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Posts</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3759,7 +3540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679680352"/>
+        <c:crossAx val="1354610863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,7 +3548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1679680352"/>
+        <c:axId val="1354610863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,61 +3568,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Engagement</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3873,7 +3599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679677440"/>
+        <c:crossAx val="1354615439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5040,13 +4766,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>174506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5084,13 +4810,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5136,28 +4862,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE6CE2A-363F-41B9-B833-F38DFAF7C2AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFB55BD-1DDD-4695-9E30-C82F8FDEB0E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5173,29 +4897,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C21BA3-28B7-4B46-A12A-6001D4C56E72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B81F1A-4860-4694-9E32-F4F409EA0DE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5892,7 +5614,13 @@
       </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="30">
+          <cell r="M30" t="str">
+            <v>total reach</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6849,7 +6577,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3900C907-7DDE-4BCF-A401-F6594D1F628F}" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3900C907-7DDE-4BCF-A401-F6594D1F628F}" name="PivotTable18" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6917,28 +6645,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D794874-1AFB-4CFF-919E-57B3ADACEC86}" name="Table3" displayName="Table3" ref="A2:M62" totalsRowCount="1" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A2:M61" xr:uid="{7C6D2694-866F-48E0-B736-F21EBFAE0364}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D794874-1AFB-4CFF-919E-57B3ADACEC86}" name="Table3" displayName="Table3" ref="A2:M63" totalsRowCount="1" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A2:M62" xr:uid="{7C6D2694-866F-48E0-B736-F21EBFAE0364}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1A7F63E3-33A5-4E16-849F-96A12E4A238F}" name="Post" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{83767E6A-D687-47A3-BC37-BB6290AED9B9}" name="Published" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{1514126D-9474-4ABA-9ABA-1DBF3755EFC3}" name="Month" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{FA7BD5C6-6444-4DDE-8F67-3EE20BE7647F}" name="PAID/UNPAID" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{41A6A75F-61C4-41C1-A392-FD8428C231A2}" name="Reach" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{2C45E451-D1A1-43D7-B02A-587DB456ECD8}" name="Engagement" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C9038DF8-CC7C-46DD-BD80-0EC14CD546F3}" name="Impressions" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{9E42594D-08FD-4CBD-996A-F6A53DFDD67D}" name="Cost per month" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{1365BCC6-13A5-4CBC-81B9-61D1F24CE916}" name="Reach per month" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{1A7F63E3-33A5-4E16-849F-96A12E4A238F}" name="Post" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{83767E6A-D687-47A3-BC37-BB6290AED9B9}" name="Published" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1514126D-9474-4ABA-9ABA-1DBF3755EFC3}" name="Month" dataDxfId="23" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FA7BD5C6-6444-4DDE-8F67-3EE20BE7647F}" name="PAID/UNPAID" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{41A6A75F-61C4-41C1-A392-FD8428C231A2}" name="Reach" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2C45E451-D1A1-43D7-B02A-587DB456ECD8}" name="Engagement" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{C9038DF8-CC7C-46DD-BD80-0EC14CD546F3}" name="Impressions" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{9E42594D-08FD-4CBD-996A-F6A53DFDD67D}" name="Cost per month" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{1365BCC6-13A5-4CBC-81B9-61D1F24CE916}" name="Reach per month" dataDxfId="17" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMIF($C$3:$C$61,C3,$E$3:$E$61)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{29D578EC-6F14-43DD-A5B9-27B1823EAEA2}" name="cost per reach" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{29D578EC-6F14-43DD-A5B9-27B1823EAEA2}" name="cost per reach" dataDxfId="16" totalsRowDxfId="3">
       <calculatedColumnFormula>H3/I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A0D998D1-A5A5-49E4-B6C5-978E6F0CFF8D}" name="Numner of posts" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{3B4503DF-FF4D-4D61-83F0-BF127B8CF6F3}" name="Total Number of Reach" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{A0D998D1-A5A5-49E4-B6C5-978E6F0CFF8D}" name="Numner of posts" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3B4503DF-FF4D-4D61-83F0-BF127B8CF6F3}" name="Total Number of Reach" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>E3+L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{43002084-0C92-4DB9-9069-2C67DB606063}" name="Total Number of Engagement" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{43002084-0C92-4DB9-9069-2C67DB606063}" name="Total Number of Engagement" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
       <calculatedColumnFormula>F3+M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7269,8 +6997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7286,137 +7014,137 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="B3" s="60" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="30">
-      <c r="B3" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="56">
         <v>8</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="56">
         <v>8</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="56">
         <v>8</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="65">
         <v>8</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="69">
         <f>SUM(C4:F4)</f>
         <v>32</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="57">
         <v>59</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="M4" s="49" t="s">
+      <c r="K4" s="105"/>
+      <c r="M4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="49"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="49">
         <v>4</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="49">
         <v>4</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="49">
         <v>4</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="66">
         <v>4</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="70">
         <f t="shared" ref="G5:G13" si="0">SUM(C5:F5)</f>
         <v>16</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="52">
         <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
       <c r="K5">
-        <v>505.13</v>
+        <v>287.29000000000002</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
       </c>
       <c r="N5">
-        <v>4.4839000000000002</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="50">
         <f>SUM(C4:C5)</f>
         <v>12</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="50">
         <f t="shared" ref="D6:F6" si="1">SUM(D4:D5)</f>
         <v>12</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="50">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="67">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="70">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="53">
         <f>SUM(H4:H5)</f>
         <v>61</v>
       </c>
@@ -7424,105 +7152,105 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>184.17</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
       </c>
       <c r="N6">
-        <v>12.276999999999999</v>
+        <v>12.284000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="51">
         <v>100</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="51">
         <v>100</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="51">
         <v>100</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="68">
         <v>100</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="71">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="54">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="74">
         <v>10</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="74">
         <v>10</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="74">
         <v>10</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="75">
         <v>10</v>
       </c>
-      <c r="G9" s="81">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H9" s="82">
+      <c r="G9" s="76">
+        <f>C9*C5+D9*D5+E9*E5+F9*F5</f>
+        <v>160</v>
+      </c>
+      <c r="H9" s="77">
         <v>13.4</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="M9" s="49" t="s">
+      <c r="K9" s="105"/>
+      <c r="M9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="49"/>
+      <c r="N9" s="105"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="98">
         <f>C8+(C9*C5)</f>
         <v>140</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="98">
         <f t="shared" ref="D10:F10" si="2">D8+(D9*D5)</f>
         <v>140</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="98">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="F10" s="106">
+      <c r="F10" s="99">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="80">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="81">
         <f>SUM(H8:H9)</f>
         <v>513.4</v>
       </c>
@@ -7540,12 +7268,12 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="96"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="4"/>
       <c r="J11" t="s">
         <v>20</v>
@@ -7561,57 +7289,57 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="89">
-        <f>($K$5+$K$6*C4)+($K$10+$K$11*C5)*C9/10</f>
-        <v>6684.49</v>
-      </c>
-      <c r="D12" s="89">
-        <f>($K$5+$K$6*D4)+($K$10+$K$11*D5)*D9/10</f>
-        <v>6684.49</v>
-      </c>
-      <c r="E12" s="89">
-        <f>($K$5+$K$6*E4)+($K$10+$K$11*E5)*E9/10</f>
-        <v>6684.49</v>
-      </c>
-      <c r="F12" s="90">
-        <f>($K$5+$K$6*F4)+($K$10+$K$11*F5)*F9/10</f>
-        <v>6684.49</v>
-      </c>
-      <c r="G12" s="101">
+      <c r="C12" s="84">
+        <f>IF(C6=0,0,($K$5+$K$6*C4)+($K$10+$K$11*C5))</f>
+        <v>6473.29</v>
+      </c>
+      <c r="D12" s="84">
+        <f>IF(D6=0,0,($K$5+$K$6*D4)+($K$10+$K$11*D5))</f>
+        <v>6473.29</v>
+      </c>
+      <c r="E12" s="84">
+        <f>IF(E6=0,0,($K$5+$K$6*E4)+($K$10+$K$11*E5))</f>
+        <v>6473.29</v>
+      </c>
+      <c r="F12" s="84">
+        <f>IF(F6=0,0,($K$5+$K$6*F4)+($K$10+$K$11*F5))</f>
+        <v>6473.29</v>
+      </c>
+      <c r="G12" s="94">
         <f t="shared" si="0"/>
-        <v>26737.96</v>
-      </c>
-      <c r="H12" s="95">
+        <v>25893.16</v>
+      </c>
+      <c r="H12" s="88">
         <f>'[1]Posts 2020'!AF3</f>
         <v>13354</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="89">
-        <f>($N$5+$N$6*C4)+($N$10+$N$11*C5)*C9/10</f>
-        <v>340.69990000000007</v>
-      </c>
-      <c r="D13" s="89">
-        <f>($N$5+$N$6*D4)+($N$10+$N$11*D5)*D9/10</f>
-        <v>340.69990000000007</v>
-      </c>
-      <c r="E13" s="89">
-        <f>($N$5+$N$6*E4)+($N$10+$N$11*E5)*E9/10</f>
-        <v>340.69990000000007</v>
-      </c>
-      <c r="F13" s="90">
-        <f>($N$5+$N$6*F4)+($N$10+$N$11*F5)*F9/10</f>
-        <v>340.69990000000007</v>
-      </c>
-      <c r="G13" s="100">
+      <c r="C13" s="84">
+        <f>IF(C6=0,0,($N$5+$N$6*C4)+($N$10+$N$11*C5))</f>
+        <v>344.36200000000008</v>
+      </c>
+      <c r="D13" s="84">
+        <f>IF(D6=0,0,($N$5+$N$6*D4)+($N$10+$N$11*D5))</f>
+        <v>344.36200000000008</v>
+      </c>
+      <c r="E13" s="84">
+        <f>IF(E6=0,0,($N$5+$N$6*E4)+($N$10+$N$11*E5))</f>
+        <v>344.36200000000008</v>
+      </c>
+      <c r="F13" s="84">
+        <f>IF(F6=0,0,($N$5+$N$6*F4)+($N$10+$N$11*F5))</f>
+        <v>344.36200000000008</v>
+      </c>
+      <c r="G13" s="93">
         <f t="shared" si="0"/>
-        <v>1362.7996000000003</v>
+        <v>1377.4480000000003</v>
       </c>
       <c r="H13" s="5">
         <f>'[1]Posts 2020'!AF4</f>
@@ -7624,7 +7352,7 @@
       </c>
       <c r="G14" s="32">
         <f>G10/G12</f>
-        <v>2.0944006199425835E-2</v>
+        <v>2.1627333241674634E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -7632,259 +7360,259 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G15" s="32">
         <f>G10/G13</f>
-        <v>0.410918817410865</v>
+        <v>0.40654892235496359</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="56">
         <v>10</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="56">
         <v>10</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="56">
         <v>10</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="65">
         <v>10</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="72">
         <f>SUM(C18:F18)</f>
         <v>40</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="57">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="49">
         <v>2</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="49">
         <v>2</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="49">
         <v>2</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="66">
         <v>2</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="70">
         <f t="shared" ref="G19:G20" si="3">SUM(C19:F19)</f>
         <v>8</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="50">
         <f>SUM(C18:C19)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="50">
         <f t="shared" ref="D20:F20" si="4">SUM(D18:D19)</f>
         <v>12</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="50">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="67">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="70">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="53">
         <f>SUM(H18:H19)</f>
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="58"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="51">
         <v>100</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="51">
         <v>100</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="51">
         <v>100</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="68">
         <v>100</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="71">
         <f t="shared" ref="G22:G24" si="5">SUM(C22:F22)</f>
         <v>400</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="54">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="74">
         <v>10</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="74">
         <v>10</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="74">
         <v>10</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="75">
         <v>10</v>
       </c>
-      <c r="G23" s="81">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="H23" s="82">
+      <c r="G23" s="76">
+        <f>C23*C19+D23*D19+E23*E19+F23*F19</f>
+        <v>80</v>
+      </c>
+      <c r="H23" s="77">
         <v>13.4</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="78">
         <f>C22+(C23*C19)</f>
         <v>120</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="78">
         <f t="shared" ref="D24:F24" si="6">D22+(D23*D19)</f>
         <v>120</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="78">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="79">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="G24" s="87">
+      <c r="G24" s="82">
         <f t="shared" si="5"/>
         <v>480</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="83">
         <f>SUM(H22:H23)</f>
         <v>513.4</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="96"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="92">
-        <f>($K$5+$K$6*C18)+($K$10+$K$11*C19)*C23/10</f>
-        <v>4804.83</v>
-      </c>
-      <c r="D26" s="92">
-        <f>($K$5+$K$6*D18)+($K$10+$K$11*D19)*D23/10</f>
-        <v>4804.83</v>
-      </c>
-      <c r="E26" s="92">
-        <f>($K$5+$K$6*E18)+($K$10+$K$11*E19)*E23/10</f>
-        <v>4804.83</v>
-      </c>
-      <c r="F26" s="93">
-        <f>($K$5+$K$6*F18)+($K$10+$K$11*F19)*F23/10</f>
-        <v>4804.83</v>
-      </c>
-      <c r="G26" s="99">
+      <c r="C26" s="86">
+        <f>IF(C20=0,0,($K$5+$K$6*C18)+($K$10+$K$11*C19))</f>
+        <v>4595.29</v>
+      </c>
+      <c r="D26" s="86">
+        <f>IF(D20=0,0,($K$5+$K$6*D18)+($K$10+$K$11*D19))</f>
+        <v>4595.29</v>
+      </c>
+      <c r="E26" s="86">
+        <f>IF(E20=0,0,($K$5+$K$6*E18)+($K$10+$K$11*E19))</f>
+        <v>4595.29</v>
+      </c>
+      <c r="F26" s="86">
+        <f>IF(F20=0,0,($K$5+$K$6*F18)+($K$10+$K$11*F19))</f>
+        <v>4595.29</v>
+      </c>
+      <c r="G26" s="92">
         <f t="shared" ref="G26:G27" si="7">SUM(C26:F26)</f>
-        <v>19219.32</v>
-      </c>
-      <c r="H26" s="95">
+        <v>18381.16</v>
+      </c>
+      <c r="H26" s="88">
         <v>13354</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="89">
-        <f>($N$5+$N$6*C18)+($N$10+$N$11*C19)*C23/10</f>
-        <v>249.25390000000004</v>
-      </c>
-      <c r="D27" s="89">
-        <f>($N$5+$N$6*D18)+($N$10+$N$11*D19)*D23/10</f>
-        <v>249.25390000000004</v>
-      </c>
-      <c r="E27" s="89">
-        <f>($N$5+$N$6*E18)+($N$10+$N$11*E19)*E23/10</f>
-        <v>249.25390000000004</v>
-      </c>
-      <c r="F27" s="90">
-        <f>($N$5+$N$6*F18)+($N$10+$N$11*F19)*F23/10</f>
-        <v>249.25390000000004</v>
-      </c>
-      <c r="G27" s="98">
+      <c r="C27" s="84">
+        <f>IF(C20=0,0,($N$5+$N$6*C18)+($N$10+$N$11*C19))</f>
+        <v>252.93</v>
+      </c>
+      <c r="D27" s="84">
+        <f t="shared" ref="D27:F27" si="8">IF(D20=0,0,($N$5+$N$6*D18)+($N$10+$N$11*D19))</f>
+        <v>252.93</v>
+      </c>
+      <c r="E27" s="84">
+        <f t="shared" si="8"/>
+        <v>252.93</v>
+      </c>
+      <c r="F27" s="84">
+        <f t="shared" si="8"/>
+        <v>252.93</v>
+      </c>
+      <c r="G27" s="91">
         <f t="shared" si="7"/>
-        <v>997.01560000000018</v>
+        <v>1011.72</v>
       </c>
       <c r="H27" s="5">
         <v>817</v>
@@ -7900,265 +7628,265 @@
       </c>
       <c r="G28" s="32">
         <f>G24/G26</f>
-        <v>2.4974869038030482E-2</v>
+        <v>2.6113694674329585E-2</v>
       </c>
       <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8">
       <c r="F29" s="28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G29" s="32">
         <f>G24/G27</f>
-        <v>0.48143679998587779</v>
+        <v>0.47443956825999289</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="30">
-      <c r="B31" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="66" t="s">
+      <c r="B31" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="56">
         <v>11</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="56">
         <v>11</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="56">
         <v>11</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="65">
         <v>11</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="72">
         <f>SUM(C32:F32)</f>
         <v>44</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="57">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="49">
         <v>1</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="49">
         <v>1</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="49">
         <v>1</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="66">
         <v>1</v>
       </c>
-      <c r="G33" s="75">
-        <f t="shared" ref="G33:G34" si="8">SUM(C33:F33)</f>
+      <c r="G33" s="70">
+        <f t="shared" ref="G33:G34" si="9">SUM(C33:F33)</f>
         <v>4</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="50">
         <f>SUM(C32:C33)</f>
         <v>12</v>
       </c>
-      <c r="D34" s="55">
-        <f t="shared" ref="D34:F34" si="9">SUM(D32:D33)</f>
+      <c r="D34" s="50">
+        <f t="shared" ref="D34:F34" si="10">SUM(D32:D33)</f>
         <v>12</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="50">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="F34" s="67">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="G34" s="70">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="F34" s="72">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="G34" s="75">
-        <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="53">
         <f>SUM(H32:H33)</f>
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="58"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="51">
         <v>100</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="51">
         <v>100</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="51">
         <v>100</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="68">
         <v>100</v>
       </c>
-      <c r="G36" s="76">
-        <f t="shared" ref="G36:G38" si="10">SUM(C36:F36)</f>
+      <c r="G36" s="71">
+        <f t="shared" ref="G36:G38" si="11">SUM(C36:F36)</f>
         <v>400</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="54">
         <v>500</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="74">
         <v>10</v>
       </c>
-      <c r="D37" s="79">
+      <c r="D37" s="74">
         <v>10</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="74">
         <v>10</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="75">
         <v>10</v>
       </c>
-      <c r="G37" s="81">
-        <f t="shared" si="10"/>
+      <c r="G37" s="76">
+        <f>C37*C33+D37*D33+E37*E33+F37*F33</f>
         <v>40</v>
       </c>
-      <c r="H37" s="82">
+      <c r="H37" s="77">
         <v>13.4</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="83">
+      <c r="C38" s="78">
         <f>C36+(C37*C33)</f>
         <v>110</v>
       </c>
-      <c r="D38" s="83">
-        <f t="shared" ref="D38:F38" si="11">D36+(D37*D33)</f>
+      <c r="D38" s="78">
+        <f t="shared" ref="D38:F38" si="12">D36+(D37*D33)</f>
         <v>110</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="78">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="F38" s="79">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="G38" s="90">
         <f t="shared" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="F38" s="84">
-        <f t="shared" si="11"/>
-        <v>110</v>
-      </c>
-      <c r="G38" s="97">
-        <f t="shared" si="10"/>
         <v>440</v>
       </c>
-      <c r="H38" s="88">
+      <c r="H38" s="83">
         <f>SUM(H36:H37)</f>
         <v>513.4</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="107"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="96"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="92">
-        <f>($K$5+$K$6*C32)+($K$10+$K$11*C33)*C37/10</f>
-        <v>3865</v>
-      </c>
-      <c r="D40" s="92">
-        <f>($K$5+$K$6*D32)+($K$10+$K$11*D33)*D37/10</f>
-        <v>3865</v>
-      </c>
-      <c r="E40" s="92">
-        <f>($K$5+$K$6*E32)+($K$10+$K$11*E33)*E37/10</f>
-        <v>3865</v>
-      </c>
-      <c r="F40" s="93">
-        <f>($K$5+$K$6*F32)+($K$10+$K$11*F33)*F37/10</f>
-        <v>3865</v>
-      </c>
-      <c r="G40" s="94">
-        <f t="shared" ref="G40:G41" si="12">SUM(C40:F40)</f>
-        <v>15460</v>
-      </c>
-      <c r="H40" s="95">
+      <c r="C40" s="86">
+        <f>IF(C34=0,0,($K$5+$K$6*C32)+($K$10+$K$11*C33))</f>
+        <v>3656.29</v>
+      </c>
+      <c r="D40" s="86">
+        <f t="shared" ref="D40:F40" si="13">IF(D34=0,0,($K$5+$K$6*D32)+($K$10+$K$11*D33))</f>
+        <v>3656.29</v>
+      </c>
+      <c r="E40" s="86">
+        <f t="shared" si="13"/>
+        <v>3656.29</v>
+      </c>
+      <c r="F40" s="86">
+        <f t="shared" si="13"/>
+        <v>3656.29</v>
+      </c>
+      <c r="G40" s="87">
+        <f t="shared" ref="G40:G41" si="14">SUM(C40:F40)</f>
+        <v>14625.16</v>
+      </c>
+      <c r="H40" s="88">
         <v>13354</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="89">
-        <f>($N$5+$N$6*C32)+($N$10+$N$11*C33)*C37/10</f>
-        <v>203.53089999999997</v>
-      </c>
-      <c r="D41" s="89">
-        <f>($N$5+$N$6*D32)+($N$10+$N$11*D33)*D37/10</f>
-        <v>203.53089999999997</v>
-      </c>
-      <c r="E41" s="89">
-        <f>($N$5+$N$6*E32)+($N$10+$N$11*E33)*E37/10</f>
-        <v>203.53089999999997</v>
-      </c>
-      <c r="F41" s="90">
-        <f>($N$5+$N$6*F32)+($N$10+$N$11*F33)*F37/10</f>
-        <v>203.53089999999997</v>
-      </c>
-      <c r="G41" s="91">
-        <f t="shared" si="12"/>
-        <v>814.1235999999999</v>
+      <c r="C41" s="84">
+        <f>IF(C34=0,0,($N$5+$N$6*C32)+($N$10+$N$11*C33))</f>
+        <v>207.214</v>
+      </c>
+      <c r="D41" s="84">
+        <f t="shared" ref="D41:F41" si="15">IF(D34=0,0,($N$5+$N$6*D32)+($N$10+$N$11*D33))</f>
+        <v>207.214</v>
+      </c>
+      <c r="E41" s="84">
+        <f t="shared" si="15"/>
+        <v>207.214</v>
+      </c>
+      <c r="F41" s="84">
+        <f t="shared" si="15"/>
+        <v>207.214</v>
+      </c>
+      <c r="G41" s="85">
+        <f t="shared" si="14"/>
+        <v>828.85599999999999</v>
       </c>
       <c r="H41" s="5">
         <v>817</v>
@@ -8170,16 +7898,16 @@
       </c>
       <c r="G42" s="32">
         <f>G38/G40</f>
-        <v>2.8460543337645538E-2</v>
+        <v>3.0085140948885345E-2</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="F43" s="28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G43" s="32">
         <f>G38/G41</f>
-        <v>0.54045847583831264</v>
+        <v>0.53085216249867284</v>
       </c>
     </row>
   </sheetData>
@@ -8196,10 +7924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI72"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8218,10 +7946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" thickBot="1">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="6"/>
       <c r="K1" s="3" t="s">
         <v>24</v>
@@ -8230,10 +7958,10 @@
         <v>25</v>
       </c>
       <c r="M1" s="3"/>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="52"/>
+      <c r="P1" s="108"/>
       <c r="Q1" s="2"/>
       <c r="Y1" t="s">
         <v>24</v>
@@ -8343,11 +8071,11 @@
         <v>51</v>
       </c>
       <c r="AD2" s="13">
-        <f>COUNT(B3:B61)</f>
+        <f>COUNT(B3:B62)</f>
         <v>59</v>
       </c>
       <c r="AE2" s="13">
-        <f>COUNT(O3:O4)</f>
+        <f>COUNT(O4:O5)</f>
         <v>2</v>
       </c>
       <c r="AF2" s="14">
@@ -8364,89 +8092,53 @@
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
-        <v>44010</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="17">
-        <v>235</v>
-      </c>
-      <c r="F3" s="14">
-        <v>11</v>
-      </c>
-      <c r="G3" s="17">
-        <v>275</v>
-      </c>
-      <c r="H3" s="17">
-        <v>100</v>
-      </c>
-      <c r="I3" s="17">
-        <f>SUMIF($C$3:$C$61,C3,$E$3:$E$61)</f>
-        <v>2353</v>
-      </c>
-      <c r="J3" s="17">
-        <f>H3/I3</f>
-        <v>4.2498937526561836E-2</v>
-      </c>
+      <c r="A3" s="111"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="17">
-        <f>E3</f>
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="M3" s="37">
-        <f>F3</f>
-        <v>11</v>
-      </c>
-      <c r="O3" s="18">
-        <v>43941</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>1334</v>
-      </c>
-      <c r="R3">
-        <v>64</v>
-      </c>
-      <c r="S3" s="19">
-        <v>1673</v>
-      </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="20">
-        <f>Q3</f>
-        <v>1334</v>
-      </c>
-      <c r="AA3" s="20">
-        <f>R3</f>
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>54</v>
       </c>
       <c r="AD3" s="14">
-        <f>SUM(E3:E61)</f>
+        <f>SUM(E3:E62)</f>
         <v>10896</v>
       </c>
       <c r="AE3" s="14">
-        <f>SUM(Q3:Q4)</f>
+        <f>SUM(Q4:Q5)</f>
         <v>2458</v>
       </c>
       <c r="AF3" s="14">
@@ -8464,10 +8156,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="36">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44009</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
+        <v>44010</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>3</v>
@@ -8475,90 +8167,77 @@
       <c r="D4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="22">
-        <v>134</v>
+      <c r="E4" s="17">
+        <v>235</v>
       </c>
       <c r="F4" s="14">
-        <v>4</v>
-      </c>
-      <c r="G4" s="22">
-        <v>144</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="17">
+        <v>275</v>
       </c>
       <c r="H4" s="17">
         <v>100</v>
       </c>
-      <c r="I4" s="17">
-        <f t="shared" ref="I4:I61" si="3">SUMIF($C$3:$C$61,C4,$E$3:$E$61)</f>
+      <c r="I4" s="110">
+        <f>SUMIF($C$3:$C$62,C4,$E$3:$E$62)</f>
         <v>2353</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" ref="J4:J61" si="4">H4/I4</f>
+        <f>H4/I4</f>
         <v>4.2498937526561836E-2</v>
       </c>
       <c r="K4" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="17">
-        <f>E4+L3</f>
-        <v>369</v>
+        <f>E4</f>
+        <v>235</v>
       </c>
       <c r="M4" s="37">
-        <f>F4+M3</f>
-        <v>15</v>
+        <f>F4</f>
+        <v>11</v>
       </c>
       <c r="O4" s="18">
-        <v>43888</v>
+        <v>43941</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>53</v>
       </c>
       <c r="Q4" s="19">
-        <v>1124</v>
+        <v>1334</v>
       </c>
       <c r="R4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="S4" s="19">
-        <v>1540</v>
-      </c>
-      <c r="T4" s="23">
-        <v>10</v>
-      </c>
-      <c r="U4" s="20">
-        <v>5</v>
-      </c>
-      <c r="V4" s="23">
-        <f>T4/Q4</f>
-        <v>8.8967971530249119E-3</v>
-      </c>
-      <c r="W4" s="23">
-        <f>T4/R4</f>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="X4" s="23">
-        <f>T4/S4</f>
-        <v>6.4935064935064939E-3</v>
-      </c>
+        <v>1673</v>
+      </c>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
       <c r="Y4" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="20">
-        <f>Q4+Z3</f>
-        <v>2458</v>
+        <f>Q4</f>
+        <v>1334</v>
       </c>
       <c r="AA4" s="20">
-        <f>R4+AA3</f>
-        <v>122</v>
+        <f>R4</f>
+        <v>64</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="AD4" s="14">
-        <f>SUM(F3:F61)</f>
+        <f>SUM(F3:F62)</f>
         <v>695</v>
       </c>
       <c r="AE4" s="14">
-        <f>SUM(R3:R4)</f>
+        <f>SUM(R4:R5)</f>
         <v>122</v>
       </c>
       <c r="AF4" s="14">
@@ -8576,10 +8255,10 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="36">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16">
-        <v>44006</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44009</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>3</v>
@@ -8587,58 +8266,90 @@
       <c r="D5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="17">
-        <v>155</v>
+      <c r="E5" s="22">
+        <v>134</v>
       </c>
       <c r="F5" s="14">
-        <v>6</v>
-      </c>
-      <c r="G5" s="17">
-        <v>166</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="22">
+        <v>144</v>
       </c>
       <c r="H5" s="17">
         <v>100</v>
       </c>
-      <c r="I5" s="17">
-        <f t="shared" si="3"/>
+      <c r="I5" s="110">
+        <f>SUMIF($C$3:$C$62,C5,$E$3:$E$62)</f>
         <v>2353</v>
       </c>
       <c r="J5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J5:J62" si="3">H5/I5</f>
         <v>4.2498937526561836E-2</v>
       </c>
       <c r="K5" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="17">
-        <f t="shared" ref="L5:M20" si="5">E5+L4</f>
-        <v>524</v>
+        <f>E5+L4</f>
+        <v>369</v>
       </c>
       <c r="M5" s="37">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f>F5+M4</f>
+        <v>15</v>
+      </c>
+      <c r="O5" s="18">
+        <v>43888</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1124</v>
       </c>
       <c r="R5">
-        <f>SUM(Q3:Q4)</f>
+        <v>58</v>
+      </c>
+      <c r="S5" s="19">
+        <v>1540</v>
+      </c>
+      <c r="T5" s="23">
+        <v>10</v>
+      </c>
+      <c r="U5" s="20">
+        <v>5</v>
+      </c>
+      <c r="V5" s="23">
+        <f>T5/Q5</f>
+        <v>8.8967971530249119E-3</v>
+      </c>
+      <c r="W5" s="23">
+        <f>T5/R5</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="X5" s="23">
+        <f>T5/S5</f>
+        <v>6.4935064935064939E-3</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="20">
+        <f>Q5+Z4</f>
         <v>2458</v>
       </c>
-      <c r="S5">
-        <f>SUM(R3:R4)</f>
+      <c r="AA5" s="20">
+        <f>R5+AA4</f>
         <v>122</v>
-      </c>
-      <c r="T5">
-        <f>SUM(S3:S4)</f>
-        <v>3213</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AE5" s="14">
-        <f>SUM(G3:G61)</f>
+        <f>SUM(G3:G62)</f>
         <v>12395</v>
       </c>
       <c r="AF5" s="14">
-        <f>SUM(S3:S4)</f>
+        <f>SUM(S4:S5)</f>
         <v>3213</v>
       </c>
       <c r="AG5" s="14">
@@ -8656,10 +8367,10 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="36">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44003</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="16">
+        <v>44006</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>3</v>
@@ -8667,45 +8378,49 @@
       <c r="D6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="22">
-        <v>217</v>
+      <c r="E6" s="17">
+        <v>155</v>
       </c>
       <c r="F6" s="14">
-        <v>14</v>
-      </c>
-      <c r="G6" s="22">
-        <v>273</v>
+        <v>6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>166</v>
       </c>
       <c r="H6" s="17">
         <v>100</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="110">
+        <f>SUMIF($C$3:$C$62,C6,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J6" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J6" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" ref="L6:M21" si="4">E6+L5</f>
+        <v>524</v>
+      </c>
+      <c r="M6" s="37">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K6" s="17">
-        <v>4</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="shared" si="5"/>
-        <v>741</v>
-      </c>
-      <c r="M6" s="37">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="W6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="49"/>
-      <c r="Z6" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="R6">
+        <f>SUM(Q4:Q5)</f>
+        <v>2458</v>
+      </c>
+      <c r="S6">
+        <f>SUM(R4:R5)</f>
+        <v>122</v>
+      </c>
+      <c r="T6">
+        <f>SUM(S4:S5)</f>
+        <v>3213</v>
+      </c>
       <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
@@ -8715,10 +8430,10 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="36">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44002</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44003</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>3</v>
@@ -8726,58 +8441,54 @@
       <c r="D7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="17">
-        <v>226</v>
+      <c r="E7" s="22">
+        <v>217</v>
       </c>
       <c r="F7" s="14">
         <v>14</v>
       </c>
-      <c r="G7" s="17">
-        <v>268</v>
+      <c r="G7" s="22">
+        <v>273</v>
       </c>
       <c r="H7" s="17">
         <v>100</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="110">
+        <f>SUMIF($C$3:$C$62,C7,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J7" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J7" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K7" s="17">
+        <v>4</v>
+      </c>
+      <c r="L7" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K7" s="17">
-        <v>5</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="5"/>
-        <v>967</v>
+        <v>741</v>
       </c>
       <c r="M7" s="37">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="W7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7">
-        <v>210</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7">
-        <v>5.9999999999999716</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="W7" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="105"/>
+      <c r="Z7" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="105"/>
       <c r="AC7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AD7" s="24">
-        <f>AVERAGE(E3:E61)</f>
+        <f>AVERAGE(E3:E62)</f>
         <v>184.67796610169492</v>
       </c>
       <c r="AE7" s="14">
-        <f>AVERAGE(Q3:Q4)</f>
+        <f>AVERAGE(Q4:Q5)</f>
         <v>1229</v>
       </c>
       <c r="AF7" s="24">
@@ -8789,10 +8500,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="36">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21">
-        <v>43999</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44002</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>3</v>
@@ -8800,58 +8511,58 @@
       <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="22">
-        <v>253</v>
+      <c r="E8" s="17">
+        <v>226</v>
       </c>
       <c r="F8" s="14">
-        <v>13</v>
-      </c>
-      <c r="G8" s="22">
-        <v>300</v>
+        <v>14</v>
+      </c>
+      <c r="G8" s="17">
+        <v>268</v>
       </c>
       <c r="H8" s="17">
         <v>100</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="110">
+        <f>SUMIF($C$3:$C$62,C8,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J8" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J8" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>5</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K8" s="17">
-        <v>6</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="5"/>
-        <v>1220</v>
+        <v>967</v>
       </c>
       <c r="M8" s="37">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="W8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X8">
-        <v>1124</v>
+        <v>210</v>
       </c>
       <c r="Z8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA8">
-        <v>58.000000000000021</v>
+        <v>5.9999999999999716</v>
       </c>
       <c r="AC8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="AD8" s="24">
-        <f>AVERAGE(F3:F61)</f>
+        <f>AVERAGE(F3:F62)</f>
         <v>11.779661016949152</v>
       </c>
       <c r="AE8" s="14">
-        <f>AVERAGE(R3:R4)</f>
+        <f>AVERAGE(R4:R5)</f>
         <v>61</v>
       </c>
       <c r="AF8" s="24">
@@ -8863,10 +8574,10 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="36">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
-        <v>43997</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43999</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>3</v>
@@ -8874,46 +8585,58 @@
       <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="17">
-        <v>222</v>
+      <c r="E9" s="22">
+        <v>253</v>
       </c>
       <c r="F9" s="14">
-        <v>12</v>
-      </c>
-      <c r="G9" s="17">
-        <v>258</v>
+        <v>13</v>
+      </c>
+      <c r="G9" s="22">
+        <v>300</v>
       </c>
       <c r="H9" s="17">
         <v>100</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="110">
+        <f>SUMIF($C$3:$C$62,C9,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J9" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K9" s="17">
+        <v>6</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K9" s="17">
-        <v>7</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="5"/>
-        <v>1442</v>
+        <v>1220</v>
       </c>
       <c r="M9" s="37">
-        <f t="shared" si="5"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9">
+        <v>1124</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9">
+        <v>58.000000000000021</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AD9" s="24">
-        <f>AVERAGE(G3:G61)</f>
+        <f>AVERAGE(G3:G62)</f>
         <v>210.08474576271186</v>
       </c>
       <c r="AE9" s="14">
-        <f>AVERAGE(S3:S4)</f>
+        <f>AVERAGE(S4:S5)</f>
         <v>1606.5</v>
       </c>
       <c r="AF9" s="24">
@@ -8925,10 +8648,10 @@
     </row>
     <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="36">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21">
-        <v>43996</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="16">
+        <v>43997</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>3</v>
@@ -8936,56 +8659,44 @@
       <c r="D10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="22">
-        <v>234</v>
+      <c r="E10" s="17">
+        <v>222</v>
       </c>
       <c r="F10" s="14">
-        <v>16</v>
-      </c>
-      <c r="G10" s="22">
-        <v>274</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="17">
+        <v>258</v>
       </c>
       <c r="H10" s="17">
         <v>100</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="110">
+        <f>SUMIF($C$3:$C$62,C10,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J10" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J10" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K10" s="17">
+        <v>7</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K10" s="17">
-        <v>8</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="5"/>
-        <v>1676</v>
+        <v>1442</v>
       </c>
       <c r="M10" s="37">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="W10" t="s">
-        <v>60</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="36">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16">
-        <v>43995</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43996</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>3</v>
@@ -8993,50 +8704,48 @@
       <c r="D11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="17">
-        <v>310</v>
+      <c r="E11" s="22">
+        <v>234</v>
       </c>
       <c r="F11" s="14">
         <v>16</v>
       </c>
-      <c r="G11" s="17">
-        <v>381</v>
+      <c r="G11" s="22">
+        <v>274</v>
       </c>
       <c r="H11" s="17">
         <v>100</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="110">
+        <f>SUMIF($C$3:$C$62,C11,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J11" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J11" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K11" s="17">
+        <v>8</v>
+      </c>
+      <c r="L11" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K11" s="17">
-        <v>9</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="5"/>
-        <v>1986</v>
+        <v>1676</v>
       </c>
       <c r="M11" s="37">
-        <f t="shared" si="5"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X11">
-        <f>X7+X8*X10</f>
-        <v>1334</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA11">
-        <f>AA7+AA8*AA10</f>
-        <v>122.00000000000001</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="25" t="s">
         <v>63</v>
@@ -9053,10 +8762,10 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="36">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21">
-        <v>43989</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="16">
+        <v>43995</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>3</v>
@@ -9064,36 +8773,50 @@
       <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="22">
-        <v>170</v>
+      <c r="E12" s="17">
+        <v>310</v>
       </c>
       <c r="F12" s="14">
-        <v>6</v>
-      </c>
-      <c r="G12" s="22">
-        <v>188</v>
+        <v>16</v>
+      </c>
+      <c r="G12" s="17">
+        <v>381</v>
       </c>
       <c r="H12" s="17">
         <v>100</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="110">
+        <f>SUMIF($C$3:$C$62,C12,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J12" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J12" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K12" s="17">
+        <v>9</v>
+      </c>
+      <c r="L12" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K12" s="17">
-        <v>10</v>
-      </c>
-      <c r="L12" s="17">
-        <f t="shared" si="5"/>
-        <v>2156</v>
+        <v>1986</v>
       </c>
       <c r="M12" s="37">
-        <f t="shared" si="5"/>
-        <v>112</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12">
+        <f>X8+X9*X11</f>
+        <v>1334</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12">
+        <f>AA8+AA9*AA11</f>
+        <v>122.00000000000001</v>
       </c>
       <c r="AC12" t="s">
         <v>35</v>
@@ -9104,10 +8827,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="36">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16">
-        <v>43988</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="21">
+        <v>43989</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>3</v>
@@ -9115,36 +8838,36 @@
       <c r="D13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="17">
-        <v>197</v>
+      <c r="E13" s="22">
+        <v>170</v>
       </c>
       <c r="F13" s="14">
-        <v>13</v>
-      </c>
-      <c r="G13" s="17">
-        <v>212</v>
+        <v>6</v>
+      </c>
+      <c r="G13" s="22">
+        <v>188</v>
       </c>
       <c r="H13" s="17">
         <v>100</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="110">
+        <f>SUMIF($C$3:$C$62,C13,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J13" s="17">
         <f t="shared" si="3"/>
-        <v>2353</v>
-      </c>
-      <c r="J13" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K13" s="17">
+        <v>10</v>
+      </c>
+      <c r="L13" s="17">
         <f t="shared" si="4"/>
-        <v>4.2498937526561836E-2</v>
-      </c>
-      <c r="K13" s="17">
-        <v>11</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" si="5"/>
-        <v>2353</v>
+        <v>2156</v>
       </c>
       <c r="M13" s="37">
-        <f t="shared" si="5"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>112</v>
       </c>
       <c r="AC13" t="s">
         <v>36</v>
@@ -9158,47 +8881,47 @@
     </row>
     <row r="14" spans="1:35" ht="15.75" thickBot="1">
       <c r="A14" s="36">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21">
-        <v>43982</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="16">
+        <v>43988</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="22">
-        <v>144</v>
+      <c r="E14" s="17">
+        <v>197</v>
       </c>
       <c r="F14" s="14">
-        <v>3</v>
-      </c>
-      <c r="G14" s="22">
-        <v>172</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="17">
+        <v>212</v>
       </c>
       <c r="H14" s="17">
         <v>100</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="110">
+        <f>SUMIF($C$3:$C$62,C14,$E$3:$E$62)</f>
+        <v>2353</v>
+      </c>
+      <c r="J14" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J14" s="17">
+        <v>4.2498937526561836E-2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>11</v>
+      </c>
+      <c r="L14" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K14" s="17">
-        <v>12</v>
-      </c>
-      <c r="L14" s="17">
-        <f t="shared" si="5"/>
-        <v>2497</v>
+        <v>2353</v>
       </c>
       <c r="M14" s="37">
-        <f t="shared" si="5"/>
-        <v>128</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="AC14" s="26" t="s">
         <v>37</v>
@@ -9215,10 +8938,10 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1">
       <c r="A15" s="36">
-        <v>13</v>
-      </c>
-      <c r="B15" s="16">
-        <v>43981</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="21">
+        <v>43982</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>2</v>
@@ -9226,44 +8949,44 @@
       <c r="D15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="17">
-        <v>283</v>
+      <c r="E15" s="22">
+        <v>144</v>
       </c>
       <c r="F15" s="14">
-        <v>20</v>
-      </c>
-      <c r="G15" s="17">
-        <v>333</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="22">
+        <v>172</v>
       </c>
       <c r="H15" s="17">
         <v>100</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="110">
+        <f>SUMIF($C$3:$C$62,C15,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J15" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J15" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>12</v>
+      </c>
+      <c r="L15" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K15" s="17">
-        <v>13</v>
-      </c>
-      <c r="L15" s="17">
-        <f t="shared" si="5"/>
-        <v>2780</v>
+        <v>2497</v>
       </c>
       <c r="M15" s="37">
-        <f t="shared" si="5"/>
-        <v>148</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="36">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21">
-        <v>43978</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43981</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>2</v>
@@ -9271,36 +8994,36 @@
       <c r="D16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="22">
-        <v>291</v>
+      <c r="E16" s="17">
+        <v>283</v>
       </c>
       <c r="F16" s="14">
         <v>20</v>
       </c>
-      <c r="G16" s="22">
-        <v>363</v>
+      <c r="G16" s="17">
+        <v>333</v>
       </c>
       <c r="H16" s="17">
         <v>100</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="110">
+        <f>SUMIF($C$3:$C$62,C16,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J16" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J16" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K16" s="17">
+        <v>13</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K16" s="17">
-        <v>14</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="5"/>
-        <v>3071</v>
+        <v>2780</v>
       </c>
       <c r="M16" s="37">
-        <f t="shared" si="5"/>
-        <v>168</v>
+        <f t="shared" si="4"/>
+        <v>148</v>
       </c>
       <c r="AC16" s="25" t="s">
         <v>64</v>
@@ -9317,10 +9040,10 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="36">
-        <v>15</v>
-      </c>
-      <c r="B17" s="16">
-        <v>43975</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="21">
+        <v>43978</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>2</v>
@@ -9328,36 +9051,36 @@
       <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="17">
-        <v>344</v>
+      <c r="E17" s="22">
+        <v>291</v>
       </c>
       <c r="F17" s="14">
-        <v>23</v>
-      </c>
-      <c r="G17" s="17">
-        <v>392</v>
+        <v>20</v>
+      </c>
+      <c r="G17" s="22">
+        <v>363</v>
       </c>
       <c r="H17" s="17">
         <v>100</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="110">
+        <f>SUMIF($C$3:$C$62,C17,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J17" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J17" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>14</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K17" s="17">
-        <v>15</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="5"/>
-        <v>3415</v>
+        <v>3071</v>
       </c>
       <c r="M17" s="37">
-        <f t="shared" si="5"/>
-        <v>191</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
       <c r="AC17" t="s">
         <v>35</v>
@@ -9368,10 +9091,10 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="36">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21">
-        <v>43974</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="16">
+        <v>43975</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>2</v>
@@ -9379,36 +9102,36 @@
       <c r="D18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="22">
-        <v>224</v>
+      <c r="E18" s="17">
+        <v>344</v>
       </c>
       <c r="F18" s="14">
-        <v>9</v>
-      </c>
-      <c r="G18" s="22">
-        <v>253</v>
+        <v>23</v>
+      </c>
+      <c r="G18" s="17">
+        <v>392</v>
       </c>
       <c r="H18" s="17">
         <v>100</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="110">
+        <f>SUMIF($C$3:$C$62,C18,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J18" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J18" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>15</v>
+      </c>
+      <c r="L18" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K18" s="17">
-        <v>16</v>
-      </c>
-      <c r="L18" s="17">
-        <f t="shared" si="5"/>
-        <v>3639</v>
+        <v>3415</v>
       </c>
       <c r="M18" s="37">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>191</v>
       </c>
       <c r="AC18" t="s">
         <v>36</v>
@@ -9422,10 +9145,10 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1">
       <c r="A19" s="36">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16">
-        <v>43971</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="21">
+        <v>43974</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>2</v>
@@ -9433,36 +9156,36 @@
       <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="17">
-        <v>159</v>
+      <c r="E19" s="22">
+        <v>224</v>
       </c>
       <c r="F19" s="14">
-        <v>7</v>
-      </c>
-      <c r="G19" s="17">
-        <v>176</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="22">
+        <v>253</v>
       </c>
       <c r="H19" s="17">
         <v>100</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="110">
+        <f>SUMIF($C$3:$C$62,C19,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J19" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J19" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K19" s="17">
+        <v>16</v>
+      </c>
+      <c r="L19" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K19" s="17">
-        <v>17</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="5"/>
-        <v>3798</v>
+        <v>3639</v>
       </c>
       <c r="M19" s="37">
-        <f t="shared" si="5"/>
-        <v>207</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="AC19" s="26" t="s">
         <v>37</v>
@@ -9479,10 +9202,10 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="36">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21">
-        <v>43968</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="16">
+        <v>43971</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>2</v>
@@ -9490,44 +9213,44 @@
       <c r="D20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="22">
-        <v>156</v>
+      <c r="E20" s="17">
+        <v>159</v>
       </c>
       <c r="F20" s="14">
         <v>7</v>
       </c>
-      <c r="G20" s="22">
-        <v>173</v>
+      <c r="G20" s="17">
+        <v>176</v>
       </c>
       <c r="H20" s="17">
         <v>100</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="110">
+        <f>SUMIF($C$3:$C$62,C20,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J20" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J20" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K20" s="17">
+        <v>17</v>
+      </c>
+      <c r="L20" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K20" s="17">
-        <v>18</v>
-      </c>
-      <c r="L20" s="17">
-        <f t="shared" si="5"/>
-        <v>3954</v>
+        <v>3798</v>
       </c>
       <c r="M20" s="37">
-        <f t="shared" si="5"/>
-        <v>214</v>
+        <f t="shared" si="4"/>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="36">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16">
-        <v>43967</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="21">
+        <v>43968</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
@@ -9535,44 +9258,44 @@
       <c r="D21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="17">
-        <v>353</v>
+      <c r="E21" s="22">
+        <v>156</v>
       </c>
       <c r="F21" s="14">
-        <v>28</v>
-      </c>
-      <c r="G21" s="17">
-        <v>432</v>
+        <v>7</v>
+      </c>
+      <c r="G21" s="22">
+        <v>173</v>
       </c>
       <c r="H21" s="17">
         <v>100</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="110">
+        <f>SUMIF($C$3:$C$62,C21,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J21" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J21" s="17">
+        <v>3.6192544335866814E-2</v>
+      </c>
+      <c r="K21" s="17">
+        <v>18</v>
+      </c>
+      <c r="L21" s="17">
         <f t="shared" si="4"/>
-        <v>3.6192544335866814E-2</v>
-      </c>
-      <c r="K21" s="17">
-        <v>19</v>
-      </c>
-      <c r="L21" s="17">
-        <f t="shared" ref="L21:M36" si="6">E21+L20</f>
-        <v>4307</v>
+        <v>3954</v>
       </c>
       <c r="M21" s="37">
-        <f t="shared" si="6"/>
-        <v>242</v>
+        <f t="shared" si="4"/>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="36">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21">
-        <v>43964</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="16">
+        <v>43967</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>2</v>
@@ -9580,44 +9303,44 @@
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="22">
-        <v>220</v>
+      <c r="E22" s="17">
+        <v>353</v>
       </c>
       <c r="F22" s="14">
-        <v>16</v>
-      </c>
-      <c r="G22" s="22">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="G22" s="17">
+        <v>432</v>
       </c>
       <c r="H22" s="17">
         <v>100</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="110">
+        <f>SUMIF($C$3:$C$62,C22,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J22" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J22" s="17">
-        <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
       <c r="K22" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" si="6"/>
-        <v>4527</v>
+        <f t="shared" ref="L22:M37" si="5">E22+L21</f>
+        <v>4307</v>
       </c>
       <c r="M22" s="37">
-        <f t="shared" si="6"/>
-        <v>258</v>
+        <f t="shared" si="5"/>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="36">
-        <v>21</v>
-      </c>
-      <c r="B23" s="16">
-        <v>43961</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="21">
+        <v>43964</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>2</v>
@@ -9625,44 +9348,44 @@
       <c r="D23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="17">
-        <v>147</v>
+      <c r="E23" s="22">
+        <v>220</v>
       </c>
       <c r="F23" s="14">
-        <v>7</v>
-      </c>
-      <c r="G23" s="17">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="22">
+        <v>251</v>
       </c>
       <c r="H23" s="17">
         <v>100</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="110">
+        <f>SUMIF($C$3:$C$62,C23,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J23" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
       <c r="K23" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" s="17">
-        <f t="shared" si="6"/>
-        <v>4674</v>
+        <f t="shared" si="5"/>
+        <v>4527</v>
       </c>
       <c r="M23" s="37">
-        <f t="shared" si="6"/>
-        <v>265</v>
+        <f t="shared" si="5"/>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="36">
-        <v>22</v>
-      </c>
-      <c r="B24" s="21">
-        <v>43960</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="16">
+        <v>43961</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>2</v>
@@ -9670,44 +9393,44 @@
       <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="22">
-        <v>213</v>
+      <c r="E24" s="17">
+        <v>147</v>
       </c>
       <c r="F24" s="14">
-        <v>11</v>
-      </c>
-      <c r="G24" s="22">
-        <v>235</v>
+        <v>7</v>
+      </c>
+      <c r="G24" s="17">
+        <v>160</v>
       </c>
       <c r="H24" s="17">
         <v>100</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="110">
+        <f>SUMIF($C$3:$C$62,C24,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J24" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
       <c r="K24" s="17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="17">
-        <f t="shared" si="6"/>
-        <v>4887</v>
+        <f t="shared" si="5"/>
+        <v>4674</v>
       </c>
       <c r="M24" s="37">
-        <f t="shared" si="6"/>
-        <v>276</v>
+        <f t="shared" si="5"/>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="36">
-        <v>23</v>
-      </c>
-      <c r="B25" s="16">
-        <v>43959</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="21">
+        <v>43960</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>2</v>
@@ -9715,89 +9438,89 @@
       <c r="D25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="17">
-        <v>229</v>
+      <c r="E25" s="22">
+        <v>213</v>
       </c>
       <c r="F25" s="14">
-        <v>23</v>
-      </c>
-      <c r="G25" s="17">
-        <v>264</v>
+        <v>11</v>
+      </c>
+      <c r="G25" s="22">
+        <v>235</v>
       </c>
       <c r="H25" s="17">
         <v>100</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="110">
+        <f>SUMIF($C$3:$C$62,C25,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J25" s="17">
         <f t="shared" si="3"/>
-        <v>2763</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="4"/>
         <v>3.6192544335866814E-2</v>
       </c>
       <c r="K25" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="6"/>
-        <v>5116</v>
+        <f t="shared" si="5"/>
+        <v>4887</v>
       </c>
       <c r="M25" s="37">
-        <f t="shared" si="6"/>
-        <v>299</v>
+        <f t="shared" si="5"/>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="36">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21">
-        <v>43947</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="16">
+        <v>43959</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="22">
-        <v>238</v>
+      <c r="E26" s="17">
+        <v>229</v>
       </c>
       <c r="F26" s="14">
-        <v>26</v>
-      </c>
-      <c r="G26" s="22">
-        <v>268</v>
+        <v>23</v>
+      </c>
+      <c r="G26" s="17">
+        <v>264</v>
       </c>
       <c r="H26" s="17">
         <v>100</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="110">
+        <f>SUMIF($C$3:$C$62,C26,$E$3:$E$62)</f>
+        <v>2763</v>
+      </c>
+      <c r="J26" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J26" s="17">
-        <f t="shared" si="4"/>
-        <v>4.6082949308755762E-2</v>
+        <v>3.6192544335866814E-2</v>
       </c>
       <c r="K26" s="17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" s="17">
-        <f t="shared" si="6"/>
-        <v>5354</v>
+        <f t="shared" si="5"/>
+        <v>5116</v>
       </c>
       <c r="M26" s="37">
-        <f t="shared" si="6"/>
-        <v>325</v>
+        <f t="shared" si="5"/>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="36">
-        <v>25</v>
-      </c>
-      <c r="B27" s="16">
-        <v>43946</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="21">
+        <v>43947</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>1</v>
@@ -9805,44 +9528,44 @@
       <c r="D27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="17">
-        <v>204</v>
+      <c r="E27" s="22">
+        <v>238</v>
       </c>
       <c r="F27" s="14">
-        <v>10</v>
-      </c>
-      <c r="G27" s="17">
-        <v>241</v>
+        <v>26</v>
+      </c>
+      <c r="G27" s="22">
+        <v>268</v>
       </c>
       <c r="H27" s="17">
         <v>100</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="110">
+        <f>SUMIF($C$3:$C$62,C27,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J27" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J27" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K27" s="17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="6"/>
-        <v>5558</v>
+        <f t="shared" si="5"/>
+        <v>5354</v>
       </c>
       <c r="M27" s="37">
-        <f t="shared" si="6"/>
-        <v>335</v>
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="36">
-        <v>26</v>
-      </c>
-      <c r="B28" s="21">
-        <v>43942</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="16">
+        <v>43946</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>1</v>
@@ -9850,44 +9573,44 @@
       <c r="D28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="22">
-        <v>203</v>
+      <c r="E28" s="17">
+        <v>204</v>
       </c>
       <c r="F28" s="14">
-        <v>11</v>
-      </c>
-      <c r="G28" s="22">
-        <v>239</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="17">
+        <v>241</v>
       </c>
       <c r="H28" s="17">
         <v>100</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="110">
+        <f>SUMIF($C$3:$C$62,C28,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J28" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J28" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K28" s="17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="6"/>
-        <v>5761</v>
+        <f t="shared" si="5"/>
+        <v>5558</v>
       </c>
       <c r="M28" s="37">
-        <f t="shared" si="6"/>
-        <v>346</v>
+        <f t="shared" si="5"/>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="21">
-        <v>43939</v>
+        <v>43942</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>1</v>
@@ -9896,43 +9619,43 @@
         <v>52</v>
       </c>
       <c r="E29" s="22">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F29" s="14">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G29" s="22">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="H29" s="17">
         <v>100</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="110">
+        <f>SUMIF($C$3:$C$62,C29,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J29" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J29" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K29" s="17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L29" s="17">
-        <f t="shared" si="6"/>
-        <v>5986</v>
+        <f t="shared" si="5"/>
+        <v>5761</v>
       </c>
       <c r="M29" s="37">
-        <f t="shared" si="6"/>
-        <v>374</v>
+        <f t="shared" si="5"/>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="36">
-        <v>28</v>
-      </c>
-      <c r="B30" s="16">
-        <v>43935</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="21">
+        <v>43939</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>1</v>
@@ -9940,44 +9663,44 @@
       <c r="D30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="17">
-        <v>193</v>
+      <c r="E30" s="22">
+        <v>225</v>
       </c>
       <c r="F30" s="14">
-        <v>10</v>
-      </c>
-      <c r="G30" s="17">
-        <v>221</v>
+        <v>28</v>
+      </c>
+      <c r="G30" s="22">
+        <v>266</v>
       </c>
       <c r="H30" s="17">
         <v>100</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="110">
+        <f>SUMIF($C$3:$C$62,C30,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J30" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J30" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K30" s="17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" si="6"/>
-        <v>6179</v>
+        <f t="shared" si="5"/>
+        <v>5986</v>
       </c>
       <c r="M30" s="37">
-        <f t="shared" si="6"/>
-        <v>384</v>
+        <f t="shared" si="5"/>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="36">
-        <v>29</v>
-      </c>
-      <c r="B31" s="21">
-        <v>43934</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="16">
+        <v>43935</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>1</v>
@@ -9985,44 +9708,44 @@
       <c r="D31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="22">
-        <v>141</v>
+      <c r="E31" s="17">
+        <v>193</v>
       </c>
       <c r="F31" s="14">
-        <v>6</v>
-      </c>
-      <c r="G31" s="22">
-        <v>166</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="17">
+        <v>221</v>
       </c>
       <c r="H31" s="17">
         <v>100</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="110">
+        <f>SUMIF($C$3:$C$62,C31,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J31" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K31" s="17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="6"/>
-        <v>6320</v>
+        <f t="shared" si="5"/>
+        <v>6179</v>
       </c>
       <c r="M31" s="37">
-        <f t="shared" si="6"/>
-        <v>390</v>
+        <f t="shared" si="5"/>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="36">
-        <v>30</v>
-      </c>
-      <c r="B32" s="16">
-        <v>43933</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="21">
+        <v>43934</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>1</v>
@@ -10030,44 +9753,44 @@
       <c r="D32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="17">
-        <v>208</v>
+      <c r="E32" s="22">
+        <v>141</v>
       </c>
       <c r="F32" s="14">
-        <v>20</v>
-      </c>
-      <c r="G32" s="17">
-        <v>253</v>
+        <v>6</v>
+      </c>
+      <c r="G32" s="22">
+        <v>166</v>
       </c>
       <c r="H32" s="17">
         <v>100</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="110">
+        <f>SUMIF($C$3:$C$62,C32,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J32" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K32" s="17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="17">
-        <f t="shared" si="6"/>
-        <v>6528</v>
+        <f t="shared" si="5"/>
+        <v>6320</v>
       </c>
       <c r="M32" s="37">
-        <f t="shared" si="6"/>
-        <v>410</v>
+        <f t="shared" si="5"/>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="36">
-        <v>31</v>
-      </c>
-      <c r="B33" s="21">
-        <v>43932</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="16">
+        <v>43933</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>1</v>
@@ -10075,43 +9798,43 @@
       <c r="D33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="22">
-        <v>124</v>
+      <c r="E33" s="17">
+        <v>208</v>
       </c>
       <c r="F33" s="14">
-        <v>15</v>
-      </c>
-      <c r="G33" s="22">
-        <v>141</v>
+        <v>20</v>
+      </c>
+      <c r="G33" s="17">
+        <v>253</v>
       </c>
       <c r="H33" s="17">
         <v>100</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="110">
+        <f>SUMIF($C$3:$C$62,C33,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J33" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K33" s="17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="17">
-        <f t="shared" si="6"/>
-        <v>6652</v>
+        <f t="shared" si="5"/>
+        <v>6528</v>
       </c>
       <c r="M33" s="37">
-        <f t="shared" si="6"/>
-        <v>425</v>
+        <f t="shared" si="5"/>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="36">
-        <v>32</v>
-      </c>
-      <c r="B34" s="16">
+        <v>31</v>
+      </c>
+      <c r="B34" s="21">
         <v>43932</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -10120,44 +9843,44 @@
       <c r="D34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="17">
-        <v>145</v>
+      <c r="E34" s="22">
+        <v>124</v>
       </c>
       <c r="F34" s="14">
-        <v>9</v>
-      </c>
-      <c r="G34" s="17">
-        <v>165</v>
+        <v>15</v>
+      </c>
+      <c r="G34" s="22">
+        <v>141</v>
       </c>
       <c r="H34" s="17">
         <v>100</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="110">
+        <f>SUMIF($C$3:$C$62,C34,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J34" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K34" s="17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L34" s="17">
-        <f t="shared" si="6"/>
-        <v>6797</v>
+        <f t="shared" si="5"/>
+        <v>6652</v>
       </c>
       <c r="M34" s="37">
-        <f t="shared" si="6"/>
-        <v>434</v>
+        <f t="shared" si="5"/>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="36">
-        <v>33</v>
-      </c>
-      <c r="B35" s="21">
-        <v>43931</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="16">
+        <v>43932</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>1</v>
@@ -10165,44 +9888,44 @@
       <c r="D35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="22">
-        <v>122</v>
+      <c r="E35" s="17">
+        <v>145</v>
       </c>
       <c r="F35" s="14">
-        <v>5</v>
-      </c>
-      <c r="G35" s="22">
-        <v>136</v>
+        <v>9</v>
+      </c>
+      <c r="G35" s="17">
+        <v>165</v>
       </c>
       <c r="H35" s="17">
         <v>100</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="110">
+        <f>SUMIF($C$3:$C$62,C35,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J35" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K35" s="17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L35" s="17">
-        <f t="shared" si="6"/>
-        <v>6919</v>
+        <f t="shared" si="5"/>
+        <v>6797</v>
       </c>
       <c r="M35" s="37">
-        <f t="shared" si="6"/>
-        <v>439</v>
+        <f t="shared" si="5"/>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="16">
-        <v>43928</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="21">
+        <v>43931</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>1</v>
@@ -10210,44 +9933,44 @@
       <c r="D36" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="17">
-        <v>146</v>
+      <c r="E36" s="22">
+        <v>122</v>
       </c>
       <c r="F36" s="14">
-        <v>7</v>
-      </c>
-      <c r="G36" s="17">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="G36" s="22">
+        <v>136</v>
       </c>
       <c r="H36" s="17">
         <v>100</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="110">
+        <f>SUMIF($C$3:$C$62,C36,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J36" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K36" s="17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36" s="17">
-        <f t="shared" si="6"/>
-        <v>7065</v>
+        <f t="shared" si="5"/>
+        <v>6919</v>
       </c>
       <c r="M36" s="37">
-        <f t="shared" si="6"/>
-        <v>446</v>
+        <f t="shared" si="5"/>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="36">
-        <v>35</v>
-      </c>
-      <c r="B37" s="21">
-        <v>43926</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="16">
+        <v>43928</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>1</v>
@@ -10255,44 +9978,44 @@
       <c r="D37" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="22">
-        <v>49</v>
+      <c r="E37" s="17">
+        <v>146</v>
       </c>
       <c r="F37" s="14">
-        <v>2</v>
-      </c>
-      <c r="G37" s="22">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="G37" s="17">
+        <v>164</v>
       </c>
       <c r="H37" s="17">
         <v>100</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="110">
+        <f>SUMIF($C$3:$C$62,C37,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J37" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J37" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K37" s="17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L37" s="17">
-        <f t="shared" ref="L37:M52" si="7">E37+L36</f>
-        <v>7114</v>
+        <f t="shared" si="5"/>
+        <v>7065</v>
       </c>
       <c r="M37" s="37">
-        <f t="shared" si="7"/>
-        <v>448</v>
+        <f t="shared" si="5"/>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="36">
-        <v>36</v>
-      </c>
-      <c r="B38" s="16">
-        <v>43925</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="21">
+        <v>43926</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>1</v>
@@ -10300,89 +10023,89 @@
       <c r="D38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="17">
-        <v>172</v>
+      <c r="E38" s="22">
+        <v>49</v>
       </c>
       <c r="F38" s="14">
-        <v>10</v>
-      </c>
-      <c r="G38" s="17">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="G38" s="22">
+        <v>54</v>
       </c>
       <c r="H38" s="17">
         <v>100</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="110">
+        <f>SUMIF($C$3:$C$62,C38,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J38" s="17">
         <f t="shared" si="3"/>
-        <v>2170</v>
-      </c>
-      <c r="J38" s="17">
-        <f t="shared" si="4"/>
         <v>4.6082949308755762E-2</v>
       </c>
       <c r="K38" s="17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L38" s="17">
-        <f t="shared" si="7"/>
-        <v>7286</v>
+        <f t="shared" ref="L38:M53" si="6">E38+L37</f>
+        <v>7114</v>
       </c>
       <c r="M38" s="37">
-        <f t="shared" si="7"/>
-        <v>458</v>
+        <f t="shared" si="6"/>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="36">
-        <v>37</v>
-      </c>
-      <c r="B39" s="21">
-        <v>43919</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="16">
+        <v>43925</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="22">
-        <v>236</v>
+      <c r="E39" s="17">
+        <v>172</v>
       </c>
       <c r="F39" s="14">
-        <v>16</v>
-      </c>
-      <c r="G39" s="22">
-        <v>279</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="17">
+        <v>186</v>
       </c>
       <c r="H39" s="17">
         <v>100</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="110">
+        <f>SUMIF($C$3:$C$62,C39,$E$3:$E$62)</f>
+        <v>2170</v>
+      </c>
+      <c r="J39" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="4"/>
-        <v>4.8590864917395532E-2</v>
+        <v>4.6082949308755762E-2</v>
       </c>
       <c r="K39" s="17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" s="17">
-        <f t="shared" si="7"/>
-        <v>7522</v>
+        <f t="shared" si="6"/>
+        <v>7286</v>
       </c>
       <c r="M39" s="37">
-        <f t="shared" si="7"/>
-        <v>474</v>
+        <f t="shared" si="6"/>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="36">
-        <v>38</v>
-      </c>
-      <c r="B40" s="16">
-        <v>43918</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="21">
+        <v>43919</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>0</v>
@@ -10390,44 +10113,44 @@
       <c r="D40" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="17">
-        <v>146</v>
+      <c r="E40" s="22">
+        <v>236</v>
       </c>
       <c r="F40" s="14">
-        <v>4</v>
-      </c>
-      <c r="G40" s="17">
-        <v>170</v>
+        <v>16</v>
+      </c>
+      <c r="G40" s="22">
+        <v>279</v>
       </c>
       <c r="H40" s="17">
         <v>100</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="110">
+        <f>SUMIF($C$3:$C$62,C40,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J40" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J40" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K40" s="17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" si="7"/>
-        <v>7668</v>
+        <f t="shared" si="6"/>
+        <v>7522</v>
       </c>
       <c r="M40" s="37">
-        <f t="shared" si="7"/>
-        <v>478</v>
+        <f t="shared" si="6"/>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="36">
-        <v>39</v>
-      </c>
-      <c r="B41" s="21">
-        <v>43916</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="16">
+        <v>43918</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>0</v>
@@ -10435,44 +10158,44 @@
       <c r="D41" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="22">
-        <v>212</v>
+      <c r="E41" s="17">
+        <v>146</v>
       </c>
       <c r="F41" s="14">
-        <v>13</v>
-      </c>
-      <c r="G41" s="22">
-        <v>271</v>
+        <v>4</v>
+      </c>
+      <c r="G41" s="17">
+        <v>170</v>
       </c>
       <c r="H41" s="17">
         <v>100</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="110">
+        <f>SUMIF($C$3:$C$62,C41,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J41" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J41" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K41" s="17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" si="7"/>
-        <v>7880</v>
+        <f t="shared" si="6"/>
+        <v>7668</v>
       </c>
       <c r="M41" s="37">
-        <f t="shared" si="7"/>
-        <v>491</v>
+        <f t="shared" si="6"/>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="36">
-        <v>40</v>
-      </c>
-      <c r="B42" s="16">
-        <v>43912</v>
+        <v>39</v>
+      </c>
+      <c r="B42" s="21">
+        <v>43916</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>0</v>
@@ -10480,44 +10203,44 @@
       <c r="D42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="17">
-        <v>36</v>
+      <c r="E42" s="22">
+        <v>212</v>
       </c>
       <c r="F42" s="14">
-        <v>1</v>
-      </c>
-      <c r="G42" s="17">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="G42" s="22">
+        <v>271</v>
       </c>
       <c r="H42" s="17">
         <v>100</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="110">
+        <f>SUMIF($C$3:$C$62,C42,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J42" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J42" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K42" s="17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" si="7"/>
-        <v>7916</v>
+        <f t="shared" si="6"/>
+        <v>7880</v>
       </c>
       <c r="M42" s="37">
-        <f t="shared" si="7"/>
-        <v>492</v>
+        <f t="shared" si="6"/>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="36">
-        <v>41</v>
-      </c>
-      <c r="B43" s="21">
-        <v>43911</v>
+        <v>40</v>
+      </c>
+      <c r="B43" s="16">
+        <v>43912</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>0</v>
@@ -10525,44 +10248,44 @@
       <c r="D43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="22">
-        <v>144</v>
+      <c r="E43" s="17">
+        <v>36</v>
       </c>
       <c r="F43" s="14">
-        <v>10</v>
-      </c>
-      <c r="G43" s="22">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="G43" s="17">
+        <v>41</v>
       </c>
       <c r="H43" s="17">
         <v>100</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="110">
+        <f>SUMIF($C$3:$C$62,C43,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J43" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K43" s="17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="7"/>
-        <v>8060</v>
+        <f t="shared" si="6"/>
+        <v>7916</v>
       </c>
       <c r="M43" s="37">
-        <f t="shared" si="7"/>
-        <v>502</v>
+        <f t="shared" si="6"/>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="36">
-        <v>42</v>
-      </c>
-      <c r="B44" s="16">
-        <v>43909</v>
+        <v>41</v>
+      </c>
+      <c r="B44" s="21">
+        <v>43911</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>0</v>
@@ -10570,44 +10293,44 @@
       <c r="D44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="17">
-        <v>206</v>
+      <c r="E44" s="22">
+        <v>144</v>
       </c>
       <c r="F44" s="14">
-        <v>16</v>
-      </c>
-      <c r="G44" s="17">
-        <v>261</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="22">
+        <v>182</v>
       </c>
       <c r="H44" s="17">
         <v>100</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="110">
+        <f>SUMIF($C$3:$C$62,C44,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J44" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J44" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K44" s="17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" si="7"/>
-        <v>8266</v>
+        <f t="shared" si="6"/>
+        <v>8060</v>
       </c>
       <c r="M44" s="37">
-        <f t="shared" si="7"/>
-        <v>518</v>
+        <f t="shared" si="6"/>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="36">
-        <v>43</v>
-      </c>
-      <c r="B45" s="21">
-        <v>43905</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="16">
+        <v>43909</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>0</v>
@@ -10615,44 +10338,44 @@
       <c r="D45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="22">
-        <v>36</v>
+      <c r="E45" s="17">
+        <v>206</v>
       </c>
       <c r="F45" s="14">
-        <v>1</v>
-      </c>
-      <c r="G45" s="22">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="G45" s="17">
+        <v>261</v>
       </c>
       <c r="H45" s="17">
         <v>100</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="110">
+        <f>SUMIF($C$3:$C$62,C45,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J45" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J45" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K45" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" si="7"/>
-        <v>8302</v>
+        <f t="shared" si="6"/>
+        <v>8266</v>
       </c>
       <c r="M45" s="37">
-        <f t="shared" si="7"/>
-        <v>519</v>
+        <f t="shared" si="6"/>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="36">
-        <v>44</v>
-      </c>
-      <c r="B46" s="16">
-        <v>43904</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="21">
+        <v>43905</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>0</v>
@@ -10660,44 +10383,44 @@
       <c r="D46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="17">
-        <v>244</v>
+      <c r="E46" s="22">
+        <v>36</v>
       </c>
       <c r="F46" s="14">
-        <v>17</v>
-      </c>
-      <c r="G46" s="17">
-        <v>272</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="22">
+        <v>39</v>
       </c>
       <c r="H46" s="17">
         <v>100</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="110">
+        <f>SUMIF($C$3:$C$62,C46,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J46" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K46" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L46" s="17">
-        <f t="shared" si="7"/>
-        <v>8546</v>
+        <f t="shared" si="6"/>
+        <v>8302</v>
       </c>
       <c r="M46" s="37">
-        <f t="shared" si="7"/>
-        <v>536</v>
+        <f t="shared" si="6"/>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="36">
-        <v>45</v>
-      </c>
-      <c r="B47" s="21">
-        <v>43901</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="16">
+        <v>43904</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>0</v>
@@ -10705,44 +10428,44 @@
       <c r="D47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="22">
-        <v>122</v>
+      <c r="E47" s="17">
+        <v>244</v>
       </c>
       <c r="F47" s="14">
-        <v>9</v>
-      </c>
-      <c r="G47" s="22">
-        <v>130</v>
+        <v>17</v>
+      </c>
+      <c r="G47" s="17">
+        <v>272</v>
       </c>
       <c r="H47" s="17">
         <v>100</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="110">
+        <f>SUMIF($C$3:$C$62,C47,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J47" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J47" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K47" s="17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="17">
-        <f t="shared" si="7"/>
-        <v>8668</v>
+        <f t="shared" si="6"/>
+        <v>8546</v>
       </c>
       <c r="M47" s="37">
-        <f t="shared" si="7"/>
-        <v>545</v>
+        <f t="shared" si="6"/>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="36">
-        <v>46</v>
-      </c>
-      <c r="B48" s="16">
-        <v>43898</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="21">
+        <v>43901</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>0</v>
@@ -10750,44 +10473,44 @@
       <c r="D48" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="17">
-        <v>197</v>
+      <c r="E48" s="22">
+        <v>122</v>
       </c>
       <c r="F48" s="14">
-        <v>20</v>
-      </c>
-      <c r="G48" s="17">
-        <v>203</v>
+        <v>9</v>
+      </c>
+      <c r="G48" s="22">
+        <v>130</v>
       </c>
       <c r="H48" s="17">
         <v>100</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="110">
+        <f>SUMIF($C$3:$C$62,C48,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J48" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J48" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K48" s="17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="17">
-        <f t="shared" si="7"/>
-        <v>8865</v>
+        <f t="shared" si="6"/>
+        <v>8668</v>
       </c>
       <c r="M48" s="37">
-        <f t="shared" si="7"/>
-        <v>565</v>
+        <f t="shared" si="6"/>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="36">
-        <v>47</v>
-      </c>
-      <c r="B49" s="21">
-        <v>43897</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="16">
+        <v>43898</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>0</v>
@@ -10795,44 +10518,44 @@
       <c r="D49" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="22">
-        <v>53</v>
+      <c r="E49" s="17">
+        <v>197</v>
       </c>
       <c r="F49" s="14">
-        <v>1</v>
-      </c>
-      <c r="G49" s="22">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="G49" s="17">
+        <v>203</v>
       </c>
       <c r="H49" s="17">
         <v>100</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="110">
+        <f>SUMIF($C$3:$C$62,C49,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J49" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J49" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K49" s="17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L49" s="17">
-        <f t="shared" si="7"/>
-        <v>8918</v>
+        <f t="shared" si="6"/>
+        <v>8865</v>
       </c>
       <c r="M49" s="37">
-        <f t="shared" si="7"/>
-        <v>566</v>
+        <f t="shared" si="6"/>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="36">
-        <v>48</v>
-      </c>
-      <c r="B50" s="16">
-        <v>43894</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="21">
+        <v>43897</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>0</v>
@@ -10840,44 +10563,44 @@
       <c r="D50" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="17">
-        <v>203</v>
+      <c r="E50" s="22">
+        <v>53</v>
       </c>
       <c r="F50" s="14">
-        <v>15</v>
-      </c>
-      <c r="G50" s="17">
-        <v>206</v>
+        <v>1</v>
+      </c>
+      <c r="G50" s="22">
+        <v>54</v>
       </c>
       <c r="H50" s="17">
         <v>100</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="110">
+        <f>SUMIF($C$3:$C$62,C50,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J50" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J50" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K50" s="17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L50" s="17">
-        <f t="shared" si="7"/>
-        <v>9121</v>
+        <f t="shared" si="6"/>
+        <v>8918</v>
       </c>
       <c r="M50" s="37">
-        <f t="shared" si="7"/>
-        <v>581</v>
+        <f t="shared" si="6"/>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="36">
-        <v>49</v>
-      </c>
-      <c r="B51" s="21">
-        <v>43891</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="16">
+        <v>43894</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>0</v>
@@ -10885,89 +10608,89 @@
       <c r="D51" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="22">
-        <v>223</v>
+      <c r="E51" s="17">
+        <v>203</v>
       </c>
       <c r="F51" s="14">
-        <v>30</v>
-      </c>
-      <c r="G51" s="22">
-        <v>231</v>
+        <v>15</v>
+      </c>
+      <c r="G51" s="17">
+        <v>206</v>
       </c>
       <c r="H51" s="17">
         <v>100</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="110">
+        <f>SUMIF($C$3:$C$62,C51,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J51" s="17">
         <f t="shared" si="3"/>
-        <v>2058</v>
-      </c>
-      <c r="J51" s="17">
-        <f t="shared" si="4"/>
         <v>4.8590864917395532E-2</v>
       </c>
       <c r="K51" s="17">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L51" s="17">
-        <f t="shared" si="7"/>
-        <v>9344</v>
+        <f t="shared" si="6"/>
+        <v>9121</v>
       </c>
       <c r="M51" s="37">
-        <f t="shared" si="7"/>
-        <v>611</v>
+        <f t="shared" si="6"/>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="36">
-        <v>50</v>
-      </c>
-      <c r="B52" s="16">
-        <v>43890</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="21">
+        <v>43891</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="17">
-        <v>337</v>
+      <c r="E52" s="22">
+        <v>223</v>
       </c>
       <c r="F52" s="14">
-        <v>23</v>
-      </c>
-      <c r="G52" s="17">
-        <v>355</v>
+        <v>30</v>
+      </c>
+      <c r="G52" s="22">
+        <v>231</v>
       </c>
       <c r="H52" s="17">
         <v>100</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="110">
+        <f>SUMIF($C$3:$C$62,C52,$E$3:$E$62)</f>
+        <v>2058</v>
+      </c>
+      <c r="J52" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J52" s="17">
-        <f t="shared" si="4"/>
-        <v>6.4432989690721643E-2</v>
+        <v>4.8590864917395532E-2</v>
       </c>
       <c r="K52" s="17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L52" s="17">
-        <f t="shared" si="7"/>
-        <v>9681</v>
+        <f t="shared" si="6"/>
+        <v>9344</v>
       </c>
       <c r="M52" s="37">
-        <f t="shared" si="7"/>
-        <v>634</v>
+        <f t="shared" si="6"/>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="36">
-        <v>51</v>
-      </c>
-      <c r="B53" s="21">
-        <v>43889</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="16">
+        <v>43890</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>65</v>
@@ -10975,44 +10698,44 @@
       <c r="D53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="22">
-        <v>132</v>
+      <c r="E53" s="17">
+        <v>337</v>
       </c>
       <c r="F53" s="14">
-        <v>4</v>
-      </c>
-      <c r="G53" s="22">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="G53" s="17">
+        <v>355</v>
       </c>
       <c r="H53" s="17">
         <v>100</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="110">
+        <f>SUMIF($C$3:$C$62,C53,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J53" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J53" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K53" s="17">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L53" s="17">
-        <f t="shared" ref="L53:M61" si="8">E53+L52</f>
-        <v>9813</v>
+        <f t="shared" si="6"/>
+        <v>9681</v>
       </c>
       <c r="M53" s="37">
-        <f t="shared" si="8"/>
-        <v>638</v>
+        <f t="shared" si="6"/>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="36">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="21">
-        <v>43886</v>
+        <v>43889</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>65</v>
@@ -11021,43 +10744,43 @@
         <v>52</v>
       </c>
       <c r="E54" s="22">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="F54" s="14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G54" s="22">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="H54" s="17">
         <v>100</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="110">
+        <f>SUMIF($C$3:$C$62,C54,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J54" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J54" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K54" s="17">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L54" s="17">
-        <f t="shared" si="8"/>
-        <v>10014</v>
+        <f t="shared" ref="L54:M62" si="7">E54+L53</f>
+        <v>9813</v>
       </c>
       <c r="M54" s="37">
-        <f t="shared" si="8"/>
-        <v>650</v>
+        <f t="shared" si="7"/>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="36">
-        <v>53</v>
-      </c>
-      <c r="B55" s="16">
-        <v>43884</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="21">
+        <v>43886</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>65</v>
@@ -11065,44 +10788,44 @@
       <c r="D55" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="17">
-        <v>57</v>
+      <c r="E55" s="22">
+        <v>201</v>
       </c>
       <c r="F55" s="14">
-        <v>2</v>
-      </c>
-      <c r="G55" s="17">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="G55" s="22">
+        <v>202</v>
       </c>
       <c r="H55" s="17">
         <v>100</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="110">
+        <f>SUMIF($C$3:$C$62,C55,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J55" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J55" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K55" s="17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L55" s="17">
-        <f t="shared" si="8"/>
-        <v>10071</v>
+        <f t="shared" si="7"/>
+        <v>10014</v>
       </c>
       <c r="M55" s="37">
-        <f t="shared" si="8"/>
-        <v>652</v>
+        <f t="shared" si="7"/>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="36">
-        <v>54</v>
-      </c>
-      <c r="B56" s="21">
-        <v>43881</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="16">
+        <v>43884</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>65</v>
@@ -11110,44 +10833,44 @@
       <c r="D56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="22">
-        <v>40</v>
+      <c r="E56" s="17">
+        <v>57</v>
       </c>
       <c r="F56" s="14">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="G56" s="17">
+        <v>57</v>
       </c>
       <c r="H56" s="17">
         <v>100</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="110">
+        <f>SUMIF($C$3:$C$62,C56,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J56" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J56" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K56" s="17">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L56" s="17">
-        <f t="shared" si="8"/>
-        <v>10111</v>
+        <f t="shared" si="7"/>
+        <v>10071</v>
       </c>
       <c r="M56" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="36">
-        <v>55</v>
-      </c>
-      <c r="B57" s="16">
-        <v>43877</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="21">
+        <v>43881</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>65</v>
@@ -11155,44 +10878,44 @@
       <c r="D57" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="17">
-        <v>258</v>
+      <c r="E57" s="22">
+        <v>40</v>
       </c>
       <c r="F57" s="14">
-        <v>10</v>
-      </c>
-      <c r="G57" s="17">
-        <v>276</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>42</v>
       </c>
       <c r="H57" s="17">
         <v>100</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="110">
+        <f>SUMIF($C$3:$C$62,C57,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J57" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J57" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K57" s="17">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L57" s="17">
-        <f t="shared" si="8"/>
-        <v>10369</v>
+        <f t="shared" si="7"/>
+        <v>10111</v>
       </c>
       <c r="M57" s="37">
-        <f t="shared" si="8"/>
-        <v>662</v>
+        <f t="shared" si="7"/>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="36">
-        <v>56</v>
-      </c>
-      <c r="B58" s="21">
-        <v>43876</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="16">
+        <v>43877</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>65</v>
@@ -11200,44 +10923,44 @@
       <c r="D58" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="22">
-        <v>134</v>
+      <c r="E58" s="17">
+        <v>258</v>
       </c>
       <c r="F58" s="14">
-        <v>2</v>
-      </c>
-      <c r="G58" s="22">
-        <v>139</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="17">
+        <v>276</v>
       </c>
       <c r="H58" s="17">
         <v>100</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="110">
+        <f>SUMIF($C$3:$C$62,C58,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J58" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J58" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K58" s="17">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L58" s="17">
-        <f t="shared" si="8"/>
-        <v>10503</v>
+        <f t="shared" si="7"/>
+        <v>10369</v>
       </c>
       <c r="M58" s="37">
-        <f t="shared" si="8"/>
-        <v>664</v>
+        <f t="shared" si="7"/>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="36">
-        <v>57</v>
-      </c>
-      <c r="B59" s="16">
-        <v>43873</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="21">
+        <v>43876</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>65</v>
@@ -11245,44 +10968,44 @@
       <c r="D59" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="17">
-        <v>47</v>
+      <c r="E59" s="22">
+        <v>134</v>
       </c>
       <c r="F59" s="14">
-        <v>1</v>
-      </c>
-      <c r="G59" s="17">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="G59" s="22">
+        <v>139</v>
       </c>
       <c r="H59" s="17">
         <v>100</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="110">
+        <f>SUMIF($C$3:$C$62,C59,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J59" s="17">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J59" s="17">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
       <c r="K59" s="17">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L59" s="17">
-        <f t="shared" si="8"/>
-        <v>10550</v>
+        <f t="shared" si="7"/>
+        <v>10503</v>
       </c>
       <c r="M59" s="37">
-        <f t="shared" si="8"/>
-        <v>665</v>
+        <f t="shared" si="7"/>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="36">
-        <v>58</v>
-      </c>
-      <c r="B60" s="21">
-        <v>43870</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="16">
+        <v>43873</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>65</v>
@@ -11290,197 +11013,242 @@
       <c r="D60" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="22">
-        <v>292</v>
+      <c r="E60" s="17">
+        <v>47</v>
       </c>
       <c r="F60" s="14">
-        <v>30</v>
-      </c>
-      <c r="G60" s="22">
-        <v>297</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="17">
+        <v>48</v>
       </c>
       <c r="H60" s="17">
         <v>100</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="110">
+        <f>SUMIF($C$3:$C$62,C60,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J60" s="17">
         <f t="shared" si="3"/>
+        <v>6.4432989690721643E-2</v>
+      </c>
+      <c r="K60" s="17">
+        <v>57</v>
+      </c>
+      <c r="L60" s="17">
+        <f t="shared" si="7"/>
+        <v>10550</v>
+      </c>
+      <c r="M60" s="37">
+        <f t="shared" si="7"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="36">
+        <v>58</v>
+      </c>
+      <c r="B61" s="21">
+        <v>43870</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="22">
+        <v>292</v>
+      </c>
+      <c r="F61" s="14">
+        <v>30</v>
+      </c>
+      <c r="G61" s="22">
+        <v>297</v>
+      </c>
+      <c r="H61" s="17">
+        <v>100</v>
+      </c>
+      <c r="I61" s="110">
+        <f>SUMIF($C$3:$C$62,C61,$E$3:$E$62)</f>
         <v>1552</v>
       </c>
-      <c r="J60" s="17">
-        <f t="shared" si="4"/>
+      <c r="J61" s="17">
+        <f t="shared" si="3"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K61" s="17">
         <v>58</v>
       </c>
-      <c r="L60" s="17">
-        <f t="shared" si="8"/>
+      <c r="L61" s="17">
+        <f t="shared" si="7"/>
         <v>10842</v>
       </c>
-      <c r="M60" s="37">
-        <f t="shared" si="8"/>
+      <c r="M61" s="37">
+        <f t="shared" si="7"/>
         <v>695</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="41">
+    <row r="62" spans="1:13">
+      <c r="A62" s="41">
         <v>59</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B62" s="34">
         <v>43869</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C62" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D62" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E62" s="35">
         <v>54</v>
       </c>
-      <c r="F61" s="33">
+      <c r="F62" s="33">
         <v>0</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G62" s="35">
         <v>56</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H62" s="35">
         <v>100</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I62" s="109">
+        <f>SUMIF($C$3:$C$62,C62,$E$3:$E$62)</f>
+        <v>1552</v>
+      </c>
+      <c r="J62" s="35">
         <f t="shared" si="3"/>
-        <v>1552</v>
-      </c>
-      <c r="J61" s="35">
-        <f t="shared" si="4"/>
         <v>6.4432989690721643E-2</v>
       </c>
-      <c r="K61" s="35">
+      <c r="K62" s="35">
         <v>59</v>
       </c>
-      <c r="L61" s="35">
-        <f t="shared" si="8"/>
+      <c r="L62" s="35">
+        <f t="shared" si="7"/>
         <v>10896</v>
       </c>
-      <c r="M61" s="42">
-        <f t="shared" si="8"/>
+      <c r="M62" s="42">
+        <f t="shared" si="7"/>
         <v>695</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="35">
+    <row r="63" spans="1:13">
+      <c r="A63" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="35">
         <f>SUBTOTAL(109,Table3[Reach])</f>
         <v>10896</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F63" s="35">
         <f>SUBTOTAL(109,Table3[Engagement])</f>
         <v>695</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G63" s="35">
         <f>SUBTOTAL(109,Table3[Impressions])</f>
         <v>12395</v>
       </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="42">
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="42">
         <f>SUBTOTAL(109,Table3[Total Number of Engagement])</f>
         <v>21995</v>
       </c>
     </row>
-    <row r="65" spans="3:23">
-      <c r="C65" s="27" t="s">
+    <row r="66" spans="3:20">
+      <c r="C66" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="3:23">
-      <c r="V66" s="49" t="s">
+    <row r="67" spans="3:20">
+      <c r="S67" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="W66" s="49"/>
-    </row>
-    <row r="67" spans="3:23">
-      <c r="L67" s="49" t="s">
+      <c r="T67" s="105"/>
+    </row>
+    <row r="68" spans="3:20">
+      <c r="I68" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="M67" s="49"/>
-      <c r="V67" t="s">
+      <c r="J68" s="105"/>
+      <c r="S68" t="s">
         <v>11</v>
       </c>
-      <c r="W67">
-        <v>4.4839000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="3:23">
-      <c r="L68" t="s">
+      <c r="T68">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="69" spans="3:20">
+      <c r="I69" t="s">
         <v>11</v>
       </c>
-      <c r="M68">
-        <v>505.13</v>
-      </c>
-      <c r="V68" t="s">
+      <c r="J69">
+        <v>287.29000000000002</v>
+      </c>
+      <c r="S69" t="s">
         <v>13</v>
       </c>
-      <c r="W68">
-        <v>12.276999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="3:23">
-      <c r="L69" t="s">
+      <c r="T69">
+        <v>12.284000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="3:20">
+      <c r="I70" t="s">
         <v>13</v>
       </c>
-      <c r="M69">
-        <v>184.17</v>
-      </c>
-    </row>
-    <row r="70" spans="3:23">
-      <c r="V70" t="s">
+      <c r="J70">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20">
+      <c r="S71" t="s">
         <v>60</v>
       </c>
-      <c r="W70">
+      <c r="T71">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="3:23">
-      <c r="L71" t="s">
+    <row r="72" spans="3:20">
+      <c r="I72" t="s">
         <v>60</v>
       </c>
-      <c r="M71">
+      <c r="J72">
         <v>100</v>
       </c>
-      <c r="V71" t="s">
+      <c r="S72" t="s">
         <v>62</v>
       </c>
-      <c r="W71">
-        <f>W67+W68*W70</f>
-        <v>618.33389999999986</v>
-      </c>
-    </row>
-    <row r="72" spans="3:23">
-      <c r="L72" t="s">
+      <c r="T72">
+        <f>T68+T69*T71</f>
+        <v>622.29000000000008</v>
+      </c>
+    </row>
+    <row r="73" spans="3:20">
+      <c r="I73" t="s">
         <v>61</v>
       </c>
-      <c r="M72">
-        <f>M68+M71*M69</f>
-        <v>18922.13</v>
+      <c r="J73">
+        <f>J69+J72*J70</f>
+        <v>18787.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="S67:T67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11506,10 +11274,10 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
